--- a/ConnectorsGOST.xlsx
+++ b/ConnectorsGOST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lab431_Oktava\Desktop\LezhnevV\testGOST\Libraries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B20F7FFB-BD30-4450-BFD3-EF4AFC0FE38B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57A5EACC-E999-4129-96DE-4303BE518CA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -469,13 +469,13 @@
     <t>Щуп</t>
   </si>
   <si>
-    <t>PWL_3</t>
-  </si>
-  <si>
     <t>APP50J1</t>
   </si>
   <si>
     <t>APP50</t>
+  </si>
+  <si>
+    <t>HDR_M_1X3</t>
   </si>
 </sst>
 </file>
@@ -828,7 +828,7 @@
   <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="I42" sqref="I42:I44"/>
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2043,7 +2043,7 @@
         <v>143</v>
       </c>
       <c r="C43" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>79</v>
@@ -2061,13 +2061,13 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>144</v>
+      </c>
+      <c r="B44" t="s">
+        <v>144</v>
+      </c>
+      <c r="C44" t="s">
         <v>145</v>
-      </c>
-      <c r="B44" t="s">
-        <v>145</v>
-      </c>
-      <c r="C44" t="s">
-        <v>146</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>79</v>

--- a/ConnectorsGOST.xlsx
+++ b/ConnectorsGOST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lab431_Oktava\Desktop\LezhnevV\testGOST\Libraries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57A5EACC-E999-4129-96DE-4303BE518CA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3713A4DA-07B7-4099-B1D3-CFF879C43C72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="160">
   <si>
     <t>M30 HDMI Adapter 1310-1033-02</t>
   </si>
@@ -476,6 +476,45 @@
   </si>
   <si>
     <t>HDR_M_1X3</t>
+  </si>
+  <si>
+    <t>StandartDoc</t>
+  </si>
+  <si>
+    <t>Manufacturer</t>
+  </si>
+  <si>
+    <t>АО "Карачевский завод "Электродеталь"</t>
+  </si>
+  <si>
+    <t>ООО "Завод Контакт"</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>HOYTEC</t>
+  </si>
+  <si>
+    <t>ВР0.364.039ТУ</t>
+  </si>
+  <si>
+    <t>ФГУП "ПО "ОКТЯБРЬ"</t>
+  </si>
+  <si>
+    <t>ВР0.364.049ТУ</t>
+  </si>
+  <si>
+    <t>ПЮЯИ.430424.029ТУ</t>
+  </si>
+  <si>
+    <t>ВР0.364.008ТУ</t>
+  </si>
+  <si>
+    <t>Winconn</t>
+  </si>
+  <si>
+    <t>Phoenix Contact</t>
   </si>
 </sst>
 </file>
@@ -539,12 +578,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -825,10 +865,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I44"/>
+  <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -836,10 +876,12 @@
     <col min="1" max="1" width="29.85546875" customWidth="1"/>
     <col min="2" max="7" width="25.7109375" customWidth="1"/>
     <col min="8" max="8" width="34.28515625" customWidth="1"/>
-    <col min="9" max="9" width="36.7109375" customWidth="1"/>
+    <col min="9" max="9" width="49.85546875" customWidth="1"/>
+    <col min="10" max="10" width="20.140625" customWidth="1"/>
+    <col min="11" max="11" width="45.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -867,8 +909,14 @@
       <c r="I1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -883,6 +931,9 @@
       </c>
       <c r="E2" s="2" t="s">
         <v>80</v>
+      </c>
+      <c r="F2" t="s">
+        <v>63</v>
       </c>
       <c r="G2" t="s">
         <v>119</v>
@@ -893,10 +944,16 @@
       </c>
       <c r="I2" t="str">
         <f>F2&amp;" "&amp;A2&amp;" "&amp;G2</f>
-        <v xml:space="preserve"> СНП268-9ВП117-1-В БСАР.430420.014ТУ</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>Вилка СНП268-9ВП117-1-В БСАР.430420.014ТУ</v>
+      </c>
+      <c r="J2" t="s">
+        <v>119</v>
+      </c>
+      <c r="K2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -905,6 +962,9 @@
       </c>
       <c r="E3" s="2" t="s">
         <v>80</v>
+      </c>
+      <c r="G3" t="s">
+        <v>153</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" ref="H3:H28" si="0">A3</f>
@@ -912,10 +972,16 @@
       </c>
       <c r="I3" t="str">
         <f t="shared" ref="I3:I29" si="1">F3&amp;" "&amp;A3&amp;" "&amp;G3</f>
-        <v xml:space="preserve"> СР-50-447ФВ  </v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v xml:space="preserve"> СР-50-447ФВ  ВР0.364.039ТУ</v>
+      </c>
+      <c r="J3" t="s">
+        <v>153</v>
+      </c>
+      <c r="K3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>37</v>
       </c>
@@ -927,6 +993,9 @@
       </c>
       <c r="F4" t="s">
         <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>155</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" si="0"/>
@@ -934,10 +1003,16 @@
       </c>
       <c r="I4" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Вилка СР-50-726ФВ </v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>Вилка СР-50-726ФВ ВР0.364.049ТУ</v>
+      </c>
+      <c r="J4" t="s">
+        <v>155</v>
+      </c>
+      <c r="K4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -949,6 +1024,9 @@
       </c>
       <c r="F5" t="s">
         <v>64</v>
+      </c>
+      <c r="G5" t="s">
+        <v>156</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" si="0"/>
@@ -956,10 +1034,16 @@
       </c>
       <c r="I5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Вилка приборная СР-50-960Ф </v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>Вилка приборная СР-50-960Ф ПЮЯИ.430424.029ТУ</v>
+      </c>
+      <c r="J5" t="s">
+        <v>156</v>
+      </c>
+      <c r="K5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -989,8 +1073,14 @@
         <f t="shared" si="1"/>
         <v>Розетка СНП268-9РП11-0-В БСАР.430420.014ТУ</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6" t="s">
+        <v>119</v>
+      </c>
+      <c r="K6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -1020,8 +1110,14 @@
         <f t="shared" si="1"/>
         <v>Розетка СНП268-9РП11-1-В БСАР.430420.014ТУ</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>41</v>
       </c>
@@ -1051,8 +1147,14 @@
         <f t="shared" si="1"/>
         <v>Вилка СНП268-9ВП11-1-В БСАР.430420.014ТУ</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8" t="s">
+        <v>119</v>
+      </c>
+      <c r="K8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -1082,8 +1184,14 @@
         <f t="shared" si="1"/>
         <v>Розетка СНП268-15РП31-1-3-В БСАР.430420.014ТУ</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9" t="s">
+        <v>119</v>
+      </c>
+      <c r="K9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>43</v>
       </c>
@@ -1113,8 +1221,14 @@
         <f t="shared" si="1"/>
         <v>Розетка СНП268-15РП11-0-В БСАР.430420.014ТУ</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10" t="s">
+        <v>119</v>
+      </c>
+      <c r="K10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>44</v>
       </c>
@@ -1144,8 +1258,14 @@
         <f t="shared" si="1"/>
         <v>Вилка СНП268-25ВП31-1-3-В  БСАР.430420.014ТУ</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11" t="s">
+        <v>119</v>
+      </c>
+      <c r="K11" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>45</v>
       </c>
@@ -1175,8 +1295,14 @@
         <f t="shared" si="1"/>
         <v>Розетка СНП268-25РП31-1-3-В БСАР.430420.014ТУ</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J12" t="s">
+        <v>119</v>
+      </c>
+      <c r="K12" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>46</v>
       </c>
@@ -1206,8 +1332,14 @@
         <f t="shared" si="1"/>
         <v>Вилка СНП347-20ВП21-В РЮМК.430420.012ТУ</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J13" t="s">
+        <v>120</v>
+      </c>
+      <c r="K13" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>47</v>
       </c>
@@ -1237,8 +1369,14 @@
         <f t="shared" si="1"/>
         <v>Вилка СНП268-25ВП11-0-В БСАР.430420.014ТУ</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J14" t="s">
+        <v>119</v>
+      </c>
+      <c r="K14" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>48</v>
       </c>
@@ -1268,8 +1406,14 @@
         <f t="shared" si="1"/>
         <v>Вилка СНП268-15ВП11-0-В БСАР.430420.014ТУ</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J15" t="s">
+        <v>119</v>
+      </c>
+      <c r="K15" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>49</v>
       </c>
@@ -1299,8 +1443,14 @@
         <f t="shared" si="1"/>
         <v>Вилка СНП268-15ВП31-1-3-В БСАР.430420.014ТУ</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16" t="s">
+        <v>119</v>
+      </c>
+      <c r="K16" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>50</v>
       </c>
@@ -1330,8 +1480,14 @@
         <f t="shared" si="1"/>
         <v>Розетка СНП268-37РП31-1-3-В БСАР.430420.014ТУ</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17" t="s">
+        <v>119</v>
+      </c>
+      <c r="K17" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -1361,8 +1517,14 @@
         <f t="shared" si="1"/>
         <v>Розетка СНП268-25РП11-0-В БСАР.430420.014ТУ</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18" t="s">
+        <v>119</v>
+      </c>
+      <c r="K18" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>52</v>
       </c>
@@ -1392,8 +1554,14 @@
         <f t="shared" si="1"/>
         <v>Вилка СНП268-37ВП31-1-3-В БСАР.430420.014ТУ</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19" t="s">
+        <v>119</v>
+      </c>
+      <c r="K19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>53</v>
       </c>
@@ -1423,8 +1591,14 @@
         <f t="shared" si="1"/>
         <v>Вилка СНП268-37ВП11-0-В БСАР.430420.014ТУ</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20" t="s">
+        <v>119</v>
+      </c>
+      <c r="K20" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>54</v>
       </c>
@@ -1454,8 +1628,14 @@
         <f t="shared" si="1"/>
         <v>Розетка СНП268-37РП11-0-В БСАР.430420.014ТУ</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J21" t="s">
+        <v>119</v>
+      </c>
+      <c r="K21" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>55</v>
       </c>
@@ -1485,8 +1665,14 @@
         <f t="shared" si="1"/>
         <v>Вилка СНП377-5ВП21-1-07 РЮМК.430420.017ТУ</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J22" t="s">
+        <v>121</v>
+      </c>
+      <c r="K22" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>56</v>
       </c>
@@ -1495,6 +1681,9 @@
       </c>
       <c r="E23" s="2" t="s">
         <v>80</v>
+      </c>
+      <c r="G23" t="s">
+        <v>155</v>
       </c>
       <c r="H23" t="str">
         <f t="shared" si="0"/>
@@ -1502,10 +1691,16 @@
       </c>
       <c r="I23" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> СР-50-725ФВ </v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+        <v xml:space="preserve"> СР-50-725ФВ ВР0.364.049ТУ</v>
+      </c>
+      <c r="J23" t="s">
+        <v>155</v>
+      </c>
+      <c r="K23" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>96</v>
       </c>
@@ -1517,6 +1712,9 @@
       </c>
       <c r="F24" t="s">
         <v>66</v>
+      </c>
+      <c r="G24" t="s">
+        <v>155</v>
       </c>
       <c r="H24" t="str">
         <f t="shared" si="0"/>
@@ -1524,10 +1722,16 @@
       </c>
       <c r="I24" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Вилка кабельная СР-50-722ФВ </v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+        <v>Вилка кабельная СР-50-722ФВ ВР0.364.049ТУ</v>
+      </c>
+      <c r="J24" t="s">
+        <v>155</v>
+      </c>
+      <c r="K24" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>58</v>
       </c>
@@ -1539,6 +1743,9 @@
       </c>
       <c r="F25" t="s">
         <v>66</v>
+      </c>
+      <c r="G25" t="s">
+        <v>157</v>
       </c>
       <c r="H25" t="str">
         <f t="shared" si="0"/>
@@ -1546,10 +1753,16 @@
       </c>
       <c r="I25" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Вилка кабельная СР-50-76ПВ </v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+        <v>Вилка кабельная СР-50-76ПВ ВР0.364.008ТУ</v>
+      </c>
+      <c r="J25" t="s">
+        <v>157</v>
+      </c>
+      <c r="K25" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>59</v>
       </c>
@@ -1570,8 +1783,14 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">Розетка WBT-6001-201-0xxB-xx (Micro Fit) </v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J26" t="s">
+        <v>151</v>
+      </c>
+      <c r="K26" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>60</v>
       </c>
@@ -1592,8 +1811,14 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">Розетка MSTB 2,5/3-STF-5,08 </v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J27" t="s">
+        <v>151</v>
+      </c>
+      <c r="K27" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>61</v>
       </c>
@@ -1614,8 +1839,14 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">Нагрузка BNC-E50P </v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J28" t="s">
+        <v>151</v>
+      </c>
+      <c r="K28" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>62</v>
       </c>
@@ -1644,8 +1875,14 @@
         <f t="shared" si="1"/>
         <v>Лепесток 2-1,0-3,0-11-04 О-Ви(99,7) ГОСТ 16840-78</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J29" t="s">
+        <v>122</v>
+      </c>
+      <c r="K29" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>100</v>
       </c>
@@ -1670,8 +1907,14 @@
       <c r="I30" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J30" t="s">
+        <v>122</v>
+      </c>
+      <c r="K30" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>115</v>
       </c>
@@ -1701,8 +1944,14 @@
         <f t="shared" ref="I31:I44" si="3">F31&amp;" "&amp;A31&amp;" "&amp;G31</f>
         <v>Розетка СНП268-25РП31-3-3-В БСАР.430420.014ТУ</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J31" t="s">
+        <v>119</v>
+      </c>
+      <c r="K31" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>116</v>
       </c>
@@ -1732,8 +1981,14 @@
         <f t="shared" si="3"/>
         <v>Розетка СНП268-9РП31-3-3-В БСАР.430420.014ТУ</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J32" t="s">
+        <v>119</v>
+      </c>
+      <c r="K32" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>117</v>
       </c>
@@ -1763,8 +2018,14 @@
         <f t="shared" si="3"/>
         <v>Розетка СНП268-37РП31-3-3-В БСАР.430420.014ТУ</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J33" t="s">
+        <v>119</v>
+      </c>
+      <c r="K33" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>123</v>
       </c>
@@ -1794,8 +2055,14 @@
         <f t="shared" si="3"/>
         <v>Вилка СНП268-25ВП31-3-3-В БСАР.430420.014ТУ</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J34" t="s">
+        <v>119</v>
+      </c>
+      <c r="K34" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>124</v>
       </c>
@@ -1825,8 +2092,14 @@
         <f t="shared" si="3"/>
         <v>Вилка СНП268-37ВП31-3-3-В БСАР.430420.014ТУ</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J35" t="s">
+        <v>119</v>
+      </c>
+      <c r="K35" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>125</v>
       </c>
@@ -1856,8 +2129,14 @@
         <f t="shared" si="3"/>
         <v>Вилка СНП268-15ВП31-3-3-В БСАР.430420.014ТУ</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J36" t="s">
+        <v>119</v>
+      </c>
+      <c r="K36" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>126</v>
       </c>
@@ -1887,8 +2166,14 @@
         <f t="shared" si="3"/>
         <v>Розетка СНП377-6РП21-1-07 РЮМК.430420.017ТУ</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J37" t="s">
+        <v>121</v>
+      </c>
+      <c r="K37" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>128</v>
       </c>
@@ -1918,8 +2203,14 @@
         <f t="shared" si="3"/>
         <v>Розетка СНП377-7РП21-1-07 РЮМК.430420.017ТУ</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J38" t="s">
+        <v>121</v>
+      </c>
+      <c r="K38" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>127</v>
       </c>
@@ -1949,8 +2240,14 @@
         <f t="shared" si="3"/>
         <v>Розетка СНП377-5РП21-1-07 РЮМК.430420.017ТУ</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J39" t="s">
+        <v>121</v>
+      </c>
+      <c r="K39" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>135</v>
       </c>
@@ -1980,8 +2277,14 @@
         <f t="shared" si="3"/>
         <v>Вилка СНП268-9ВП31-3-3-В БСАР.430420.014ТУ</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J40" t="s">
+        <v>119</v>
+      </c>
+      <c r="K40" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>137</v>
       </c>
@@ -2008,7 +2311,7 @@
         <v xml:space="preserve">Розетка BNS 1P4C h18,6 P10x10 </v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>140</v>
       </c>
@@ -2035,7 +2338,7 @@
         <v xml:space="preserve">Вилка DS1021-2x5 </v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>143</v>
       </c>
@@ -2059,7 +2362,7 @@
         <v xml:space="preserve"> Щуп </v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>144</v>
       </c>

--- a/ConnectorsGOST.xlsx
+++ b/ConnectorsGOST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lab431_Oktava\Desktop\LezhnevV\testGOST\Libraries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3713A4DA-07B7-4099-B1D3-CFF879C43C72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{046FB121-82FD-4C47-A9C6-8FA9B2616F6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="165">
   <si>
     <t>M30 HDMI Adapter 1310-1033-02</t>
   </si>
@@ -515,6 +515,21 @@
   </si>
   <si>
     <t>Phoenix Contact</t>
+  </si>
+  <si>
+    <t>СНП268-25ВП21-1-В</t>
+  </si>
+  <si>
+    <t>СНП268-15РП21-1-В</t>
+  </si>
+  <si>
+    <t>СНП347-10ВП21-В</t>
+  </si>
+  <si>
+    <t>СНП347-10ВП</t>
+  </si>
+  <si>
+    <t>IDC_2X5</t>
   </si>
 </sst>
 </file>
@@ -865,10 +880,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K44"/>
+  <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="B9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1941,7 +1956,7 @@
         <v>СНП268-25РП31-3-3-В</v>
       </c>
       <c r="I31" t="str">
-        <f t="shared" ref="I31:I44" si="3">F31&amp;" "&amp;A31&amp;" "&amp;G31</f>
+        <f t="shared" ref="I31:I47" si="3">F31&amp;" "&amp;A31&amp;" "&amp;G31</f>
         <v>Розетка СНП268-25РП31-3-3-В БСАР.430420.014ТУ</v>
       </c>
       <c r="J31" t="s">
@@ -2385,6 +2400,117 @@
       <c r="I44" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> APP50J1 </v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>160</v>
+      </c>
+      <c r="B45" t="s">
+        <v>72</v>
+      </c>
+      <c r="C45" t="s">
+        <v>89</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F45" t="s">
+        <v>63</v>
+      </c>
+      <c r="G45" t="s">
+        <v>119</v>
+      </c>
+      <c r="H45" t="str">
+        <f t="shared" ref="H45:H47" si="4">A45</f>
+        <v>СНП268-25ВП21-1-В</v>
+      </c>
+      <c r="I45" t="str">
+        <f t="shared" si="3"/>
+        <v>Вилка СНП268-25ВП21-1-В БСАР.430420.014ТУ</v>
+      </c>
+      <c r="J45" t="s">
+        <v>119</v>
+      </c>
+      <c r="K45" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>161</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46" t="s">
+        <v>86</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F46" t="s">
+        <v>65</v>
+      </c>
+      <c r="G46" t="s">
+        <v>119</v>
+      </c>
+      <c r="H46" t="str">
+        <f t="shared" si="4"/>
+        <v>СНП268-15РП21-1-В</v>
+      </c>
+      <c r="I46" t="str">
+        <f t="shared" si="3"/>
+        <v>Розетка СНП268-15РП21-1-В БСАР.430420.014ТУ</v>
+      </c>
+      <c r="J46" t="s">
+        <v>119</v>
+      </c>
+      <c r="K46" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>162</v>
+      </c>
+      <c r="B47" t="s">
+        <v>163</v>
+      </c>
+      <c r="C47" t="s">
+        <v>164</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F47" t="s">
+        <v>63</v>
+      </c>
+      <c r="G47" t="s">
+        <v>120</v>
+      </c>
+      <c r="H47" t="str">
+        <f t="shared" si="4"/>
+        <v>СНП347-10ВП21-В</v>
+      </c>
+      <c r="I47" t="str">
+        <f t="shared" si="3"/>
+        <v>Вилка СНП347-10ВП21-В РЮМК.430420.012ТУ</v>
+      </c>
+      <c r="J47" t="s">
+        <v>120</v>
+      </c>
+      <c r="K47" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>

--- a/ConnectorsGOST.xlsx
+++ b/ConnectorsGOST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lab431_Oktava\Desktop\LezhnevV\testGOST\Libraries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{046FB121-82FD-4C47-A9C6-8FA9B2616F6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A84A0BF-9CF3-43E7-A051-57B671F896E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="168">
   <si>
     <t>M30 HDMI Adapter 1310-1033-02</t>
   </si>
@@ -530,6 +530,15 @@
   </si>
   <si>
     <t>IDC_2X5</t>
+  </si>
+  <si>
+    <t>СР-50-939ФМВ-1</t>
+  </si>
+  <si>
+    <t>СР-50-939</t>
+  </si>
+  <si>
+    <t>ВР0.364.049 ТУ</t>
   </si>
 </sst>
 </file>
@@ -880,10 +889,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K47"/>
+  <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H47" sqref="H47"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1956,7 +1965,7 @@
         <v>СНП268-25РП31-3-3-В</v>
       </c>
       <c r="I31" t="str">
-        <f t="shared" ref="I31:I47" si="3">F31&amp;" "&amp;A31&amp;" "&amp;G31</f>
+        <f t="shared" ref="I31:I48" si="3">F31&amp;" "&amp;A31&amp;" "&amp;G31</f>
         <v>Розетка СНП268-25РП31-3-3-В БСАР.430420.014ТУ</v>
       </c>
       <c r="J31" t="s">
@@ -2425,7 +2434,7 @@
         <v>119</v>
       </c>
       <c r="H45" t="str">
-        <f t="shared" ref="H45:H47" si="4">A45</f>
+        <f t="shared" ref="H45:H48" si="4">A45</f>
         <v>СНП268-25ВП21-1-В</v>
       </c>
       <c r="I45" t="str">
@@ -2511,6 +2520,43 @@
       </c>
       <c r="K47" t="s">
         <v>149</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>165</v>
+      </c>
+      <c r="B48" t="s">
+        <v>139</v>
+      </c>
+      <c r="C48" t="s">
+        <v>166</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F48" t="s">
+        <v>65</v>
+      </c>
+      <c r="G48" t="s">
+        <v>167</v>
+      </c>
+      <c r="H48" t="str">
+        <f t="shared" si="4"/>
+        <v>СР-50-939ФМВ-1</v>
+      </c>
+      <c r="I48" t="str">
+        <f t="shared" si="3"/>
+        <v>Розетка СР-50-939ФМВ-1 ВР0.364.049 ТУ</v>
+      </c>
+      <c r="J48" t="s">
+        <v>167</v>
+      </c>
+      <c r="K48" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/ConnectorsGOST.xlsx
+++ b/ConnectorsGOST.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lab431_Oktava\Desktop\LezhnevV\testGOST\Libraries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A84A0BF-9CF3-43E7-A051-57B671F896E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA4D7D48-1A64-4EC5-A80A-F326595D268F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="171">
   <si>
     <t>M30 HDMI Adapter 1310-1033-02</t>
   </si>
@@ -539,6 +539,15 @@
   </si>
   <si>
     <t>ВР0.364.049 ТУ</t>
+  </si>
+  <si>
+    <t>СК9-РПМП-Х-1-055-1.М</t>
+  </si>
+  <si>
+    <t>СК9-РПМП-Х-1-055</t>
+  </si>
+  <si>
+    <t>ТУ 27.33.13.120-006-38970729-2019</t>
   </si>
 </sst>
 </file>
@@ -889,18 +898,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K48"/>
+  <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50:XFD50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.85546875" customWidth="1"/>
-    <col min="2" max="7" width="25.7109375" customWidth="1"/>
+    <col min="2" max="6" width="25.7109375" customWidth="1"/>
+    <col min="7" max="7" width="30" customWidth="1"/>
     <col min="8" max="8" width="34.28515625" customWidth="1"/>
-    <col min="9" max="9" width="49.85546875" customWidth="1"/>
+    <col min="9" max="9" width="60.7109375" customWidth="1"/>
     <col min="10" max="10" width="20.140625" customWidth="1"/>
     <col min="11" max="11" width="45.28515625" customWidth="1"/>
   </cols>
@@ -1965,7 +1975,7 @@
         <v>СНП268-25РП31-3-3-В</v>
       </c>
       <c r="I31" t="str">
-        <f t="shared" ref="I31:I48" si="3">F31&amp;" "&amp;A31&amp;" "&amp;G31</f>
+        <f t="shared" ref="I31:I49" si="3">F31&amp;" "&amp;A31&amp;" "&amp;G31</f>
         <v>Розетка СНП268-25РП31-3-3-В БСАР.430420.014ТУ</v>
       </c>
       <c r="J31" t="s">
@@ -2434,7 +2444,7 @@
         <v>119</v>
       </c>
       <c r="H45" t="str">
-        <f t="shared" ref="H45:H48" si="4">A45</f>
+        <f t="shared" ref="H45:H49" si="4">A45</f>
         <v>СНП268-25ВП21-1-В</v>
       </c>
       <c r="I45" t="str">
@@ -2557,6 +2567,40 @@
       </c>
       <c r="K48" t="s">
         <v>154</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>168</v>
+      </c>
+      <c r="B49" t="s">
+        <v>139</v>
+      </c>
+      <c r="C49" t="s">
+        <v>169</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F49" t="s">
+        <v>65</v>
+      </c>
+      <c r="G49" t="s">
+        <v>170</v>
+      </c>
+      <c r="H49" t="str">
+        <f t="shared" si="4"/>
+        <v>СК9-РПМП-Х-1-055-1.М</v>
+      </c>
+      <c r="I49" t="str">
+        <f t="shared" si="3"/>
+        <v>Розетка СК9-РПМП-Х-1-055-1.М ТУ 27.33.13.120-006-38970729-2019</v>
+      </c>
+      <c r="J49" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>

--- a/ConnectorsGOST.xlsx
+++ b/ConnectorsGOST.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lab431_Oktava\Desktop\LezhnevV\testGOST\Libraries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA4D7D48-1A64-4EC5-A80A-F326595D268F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4B1F430-D92C-427E-BA75-7E40A23F234B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="177">
   <si>
     <t>M30 HDMI Adapter 1310-1033-02</t>
   </si>
@@ -548,6 +548,24 @@
   </si>
   <si>
     <t>ТУ 27.33.13.120-006-38970729-2019</t>
+  </si>
+  <si>
+    <t>DS1037-25M</t>
+  </si>
+  <si>
+    <t>DS1013-10S (IDC-10MS)</t>
+  </si>
+  <si>
+    <t>DS1037-15M</t>
+  </si>
+  <si>
+    <t>DS1013-10S</t>
+  </si>
+  <si>
+    <t>DS1037-9F</t>
+  </si>
+  <si>
+    <t>DSUB9-Р-Вер</t>
   </si>
 </sst>
 </file>
@@ -898,10 +916,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K49"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50:XFD50"/>
+    <sheetView tabSelected="1" topLeftCell="F34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J54" sqref="J54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1975,7 +1993,7 @@
         <v>СНП268-25РП31-3-3-В</v>
       </c>
       <c r="I31" t="str">
-        <f t="shared" ref="I31:I49" si="3">F31&amp;" "&amp;A31&amp;" "&amp;G31</f>
+        <f t="shared" ref="I31:I53" si="3">F31&amp;" "&amp;A31&amp;" "&amp;G31</f>
         <v>Розетка СНП268-25РП31-3-3-В БСАР.430420.014ТУ</v>
       </c>
       <c r="J31" t="s">
@@ -2344,6 +2362,9 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve">Розетка BNS 1P4C h18,6 P10x10 </v>
       </c>
+      <c r="J41" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
@@ -2371,6 +2392,9 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve">Вилка DS1021-2x5 </v>
       </c>
+      <c r="J42" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
@@ -2420,6 +2444,9 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve"> APP50J1 </v>
       </c>
+      <c r="J44" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -2444,7 +2471,7 @@
         <v>119</v>
       </c>
       <c r="H45" t="str">
-        <f t="shared" ref="H45:H49" si="4">A45</f>
+        <f t="shared" ref="H45:H53" si="4">A45</f>
         <v>СНП268-25ВП21-1-В</v>
       </c>
       <c r="I45" t="str">
@@ -2601,6 +2628,129 @@
       </c>
       <c r="J49" t="s">
         <v>170</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B50" t="s">
+        <v>72</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F50" t="s">
+        <v>63</v>
+      </c>
+      <c r="H50" t="str">
+        <f t="shared" si="4"/>
+        <v>DS1037-25M</v>
+      </c>
+      <c r="I50" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">Вилка DS1037-25M </v>
+      </c>
+      <c r="J50" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B51" t="s">
+        <v>163</v>
+      </c>
+      <c r="C51" t="s">
+        <v>164</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F51" t="s">
+        <v>63</v>
+      </c>
+      <c r="H51" t="s">
+        <v>174</v>
+      </c>
+      <c r="I51" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">Вилка DS1013-10S (IDC-10MS) </v>
+      </c>
+      <c r="J51" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B52" t="s">
+        <v>71</v>
+      </c>
+      <c r="C52" t="s">
+        <v>86</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F52" t="s">
+        <v>65</v>
+      </c>
+      <c r="H52" t="str">
+        <f t="shared" si="4"/>
+        <v>DS1037-15M</v>
+      </c>
+      <c r="I52" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">Розетка DS1037-15M </v>
+      </c>
+      <c r="J52" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B53" t="s">
+        <v>70</v>
+      </c>
+      <c r="C53" t="s">
+        <v>176</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F53" t="s">
+        <v>65</v>
+      </c>
+      <c r="H53" t="str">
+        <f t="shared" si="4"/>
+        <v>DS1037-9F</v>
+      </c>
+      <c r="I53" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">Розетка DS1037-9F </v>
+      </c>
+      <c r="J53" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/ConnectorsGOST.xlsx
+++ b/ConnectorsGOST.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lab431_Oktava\Desktop\LezhnevV\testGOST\Libraries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4B1F430-D92C-427E-BA75-7E40A23F234B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44D96F45-F65F-42C3-9517-17BD45078354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="178">
   <si>
     <t>M30 HDMI Adapter 1310-1033-02</t>
   </si>
@@ -566,6 +566,9 @@
   </si>
   <si>
     <t>DSUB9-Р-Вер</t>
+  </si>
+  <si>
+    <t>СК9-РПМП</t>
   </si>
 </sst>
 </file>
@@ -918,8 +921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J54" sqref="J54"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2618,9 +2621,8 @@
       <c r="G49" t="s">
         <v>170</v>
       </c>
-      <c r="H49" t="str">
-        <f t="shared" si="4"/>
-        <v>СК9-РПМП-Х-1-055-1.М</v>
+      <c r="H49" t="s">
+        <v>177</v>
       </c>
       <c r="I49" t="str">
         <f t="shared" si="3"/>

--- a/ConnectorsGOST.xlsx
+++ b/ConnectorsGOST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lab431_Oktava\Desktop\LezhnevV\testGOST\Libraries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44D96F45-F65F-42C3-9517-17BD45078354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58CBED1E-7B0B-46BA-A958-988713900EFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="182">
   <si>
     <t>M30 HDMI Adapter 1310-1033-02</t>
   </si>
@@ -556,9 +556,6 @@
     <t>DS1013-10S (IDC-10MS)</t>
   </si>
   <si>
-    <t>DS1037-15M</t>
-  </si>
-  <si>
     <t>DS1013-10S</t>
   </si>
   <si>
@@ -569,6 +566,21 @@
   </si>
   <si>
     <t>СК9-РПМП</t>
+  </si>
+  <si>
+    <t>DS1021-2X6SF11-B</t>
+  </si>
+  <si>
+    <t>HDR_M_2X6</t>
+  </si>
+  <si>
+    <t>СНП377-12РП</t>
+  </si>
+  <si>
+    <t>DS1037-15F</t>
+  </si>
+  <si>
+    <t>DS1037-25F</t>
   </si>
 </sst>
 </file>
@@ -919,10 +931,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K53"/>
+  <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H50" sqref="H50"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1996,7 +2008,7 @@
         <v>СНП268-25РП31-3-3-В</v>
       </c>
       <c r="I31" t="str">
-        <f t="shared" ref="I31:I53" si="3">F31&amp;" "&amp;A31&amp;" "&amp;G31</f>
+        <f t="shared" ref="I31:I54" si="3">F31&amp;" "&amp;A31&amp;" "&amp;G31</f>
         <v>Розетка СНП268-25РП31-3-3-В БСАР.430420.014ТУ</v>
       </c>
       <c r="J31" t="s">
@@ -2622,7 +2634,7 @@
         <v>170</v>
       </c>
       <c r="H49" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I49" t="str">
         <f t="shared" si="3"/>
@@ -2683,7 +2695,7 @@
         <v>63</v>
       </c>
       <c r="H51" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I51" t="str">
         <f t="shared" si="3"/>
@@ -2695,7 +2707,7 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="B52" t="s">
         <v>71</v>
@@ -2714,11 +2726,11 @@
       </c>
       <c r="H52" t="str">
         <f t="shared" si="4"/>
-        <v>DS1037-15M</v>
+        <v>DS1037-15F</v>
       </c>
       <c r="I52" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">Розетка DS1037-15M </v>
+        <v xml:space="preserve">Розетка DS1037-15F </v>
       </c>
       <c r="J52" t="s">
         <v>151</v>
@@ -2726,13 +2738,13 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B53" t="s">
         <v>70</v>
       </c>
       <c r="C53" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>79</v>
@@ -2752,6 +2764,67 @@
         <v xml:space="preserve">Розетка DS1037-9F </v>
       </c>
       <c r="J53" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B54" t="s">
+        <v>179</v>
+      </c>
+      <c r="C54" t="s">
+        <v>178</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F54" t="s">
+        <v>63</v>
+      </c>
+      <c r="H54" t="s">
+        <v>142</v>
+      </c>
+      <c r="I54" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">Вилка DS1021-2X6SF11-B </v>
+      </c>
+      <c r="J54" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B55" t="s">
+        <v>73</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F55" t="s">
+        <v>63</v>
+      </c>
+      <c r="H55" t="str">
+        <f t="shared" ref="H55" si="5">A55</f>
+        <v>DS1037-25F</v>
+      </c>
+      <c r="I55" t="str">
+        <f t="shared" ref="I55" si="6">F55&amp;" "&amp;A55&amp;" "&amp;G55</f>
+        <v xml:space="preserve">Вилка DS1037-25F </v>
+      </c>
+      <c r="J55" t="s">
         <v>151</v>
       </c>
     </row>

--- a/ConnectorsGOST.xlsx
+++ b/ConnectorsGOST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lab431_Oktava\Desktop\LezhnevV\testGOST\Libraries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58CBED1E-7B0B-46BA-A958-988713900EFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC28297-9633-44D3-8D92-B357850FCEED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="190">
   <si>
     <t>M30 HDMI Adapter 1310-1033-02</t>
   </si>
@@ -550,18 +550,12 @@
     <t>ТУ 27.33.13.120-006-38970729-2019</t>
   </si>
   <si>
-    <t>DS1037-25M</t>
-  </si>
-  <si>
     <t>DS1013-10S (IDC-10MS)</t>
   </si>
   <si>
     <t>DS1013-10S</t>
   </si>
   <si>
-    <t>DS1037-9F</t>
-  </si>
-  <si>
     <t>DSUB9-Р-Вер</t>
   </si>
   <si>
@@ -574,13 +568,43 @@
     <t>HDR_M_2X6</t>
   </si>
   <si>
-    <t>СНП377-12РП</t>
-  </si>
-  <si>
     <t>DS1037-15F</t>
   </si>
   <si>
     <t>DS1037-25F</t>
+  </si>
+  <si>
+    <t>СНП268-25РП31-3-5-В</t>
+  </si>
+  <si>
+    <t>СНП268-15РП31-3-5-В</t>
+  </si>
+  <si>
+    <t>СНП268-37ВП31-3-5-В</t>
+  </si>
+  <si>
+    <t>DS1033-25M</t>
+  </si>
+  <si>
+    <t>DS1033-15F</t>
+  </si>
+  <si>
+    <t>DS1033-9F</t>
+  </si>
+  <si>
+    <t>DS1033-25F</t>
+  </si>
+  <si>
+    <t>DS1033-37M</t>
+  </si>
+  <si>
+    <t>СНП377-12ВП</t>
+  </si>
+  <si>
+    <t>2-1,0-4,0-14-04</t>
+  </si>
+  <si>
+    <t>2-1,0-3,0-11-04</t>
   </si>
 </sst>
 </file>
@@ -931,10 +955,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K55"/>
+  <dimension ref="A1:K62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1915,7 +1939,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>62</v>
+        <v>189</v>
       </c>
       <c r="B29" t="s">
         <v>103</v>
@@ -1940,7 +1964,7 @@
       </c>
       <c r="I29" t="str">
         <f t="shared" si="1"/>
-        <v>Лепесток 2-1,0-3,0-11-04 О-Ви(99,7) ГОСТ 16840-78</v>
+        <v>Лепесток 2-1,0-3,0-11-04 ГОСТ 16840-78</v>
       </c>
       <c r="J29" t="s">
         <v>122</v>
@@ -2611,7 +2635,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>168</v>
       </c>
@@ -2634,7 +2658,7 @@
         <v>170</v>
       </c>
       <c r="H49" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I49" t="str">
         <f t="shared" si="3"/>
@@ -2644,9 +2668,9 @@
         <v>170</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="B50" t="s">
         <v>72</v>
@@ -2665,19 +2689,19 @@
       </c>
       <c r="H50" t="str">
         <f t="shared" si="4"/>
-        <v>DS1037-25M</v>
+        <v>DS1033-25M</v>
       </c>
       <c r="I50" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">Вилка DS1037-25M </v>
+        <v xml:space="preserve">Вилка DS1033-25M </v>
       </c>
       <c r="J50" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B51" t="s">
         <v>163</v>
@@ -2695,7 +2719,7 @@
         <v>63</v>
       </c>
       <c r="H51" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I51" t="str">
         <f t="shared" si="3"/>
@@ -2705,9 +2729,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B52" t="s">
         <v>71</v>
@@ -2726,25 +2750,25 @@
       </c>
       <c r="H52" t="str">
         <f t="shared" si="4"/>
-        <v>DS1037-15F</v>
+        <v>DS1033-15F</v>
       </c>
       <c r="I52" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">Розетка DS1037-15F </v>
+        <v xml:space="preserve">Розетка DS1033-15F </v>
       </c>
       <c r="J52" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="B53" t="s">
         <v>70</v>
       </c>
       <c r="C53" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>79</v>
@@ -2757,25 +2781,25 @@
       </c>
       <c r="H53" t="str">
         <f t="shared" si="4"/>
-        <v>DS1037-9F</v>
+        <v>DS1033-9F</v>
       </c>
       <c r="I53" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">Розетка DS1037-9F </v>
+        <v xml:space="preserve">Розетка DS1033-9F </v>
       </c>
       <c r="J53" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B54" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="C54" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>79</v>
@@ -2797,9 +2821,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B55" t="s">
         <v>73</v>
@@ -2814,18 +2838,258 @@
         <v>80</v>
       </c>
       <c r="F55" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H55" t="str">
-        <f t="shared" ref="H55" si="5">A55</f>
-        <v>DS1037-25F</v>
+        <f t="shared" ref="H55:H61" si="5">A55</f>
+        <v>DS1033-25F</v>
       </c>
       <c r="I55" t="str">
-        <f t="shared" ref="I55" si="6">F55&amp;" "&amp;A55&amp;" "&amp;G55</f>
-        <v xml:space="preserve">Вилка DS1037-25F </v>
+        <f t="shared" ref="I55:I62" si="6">F55&amp;" "&amp;A55&amp;" "&amp;G55</f>
+        <v xml:space="preserve">Розетка DS1033-25F </v>
       </c>
       <c r="J55" t="s">
         <v>151</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B56" t="s">
+        <v>77</v>
+      </c>
+      <c r="C56" t="s">
+        <v>92</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F56" t="s">
+        <v>63</v>
+      </c>
+      <c r="H56" t="str">
+        <f t="shared" si="5"/>
+        <v>DS1033-37M</v>
+      </c>
+      <c r="I56" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">Вилка DS1033-37M </v>
+      </c>
+      <c r="J56" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B57" t="s">
+        <v>73</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F57" t="s">
+        <v>65</v>
+      </c>
+      <c r="G57" t="s">
+        <v>119</v>
+      </c>
+      <c r="H57" t="str">
+        <f t="shared" si="5"/>
+        <v>СНП268-25РП31-3-5-В</v>
+      </c>
+      <c r="I57" t="str">
+        <f t="shared" si="6"/>
+        <v>Розетка СНП268-25РП31-3-5-В БСАР.430420.014ТУ</v>
+      </c>
+      <c r="J57" t="s">
+        <v>119</v>
+      </c>
+      <c r="K57" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B58" t="s">
+        <v>71</v>
+      </c>
+      <c r="C58" t="s">
+        <v>85</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F58" t="s">
+        <v>65</v>
+      </c>
+      <c r="G58" t="s">
+        <v>119</v>
+      </c>
+      <c r="H58" t="str">
+        <f t="shared" si="5"/>
+        <v>СНП268-15РП31-3-5-В</v>
+      </c>
+      <c r="I58" t="str">
+        <f t="shared" si="6"/>
+        <v>Розетка СНП268-15РП31-3-5-В БСАР.430420.014ТУ</v>
+      </c>
+      <c r="J58" t="s">
+        <v>119</v>
+      </c>
+      <c r="K58" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B59" t="s">
+        <v>77</v>
+      </c>
+      <c r="C59" t="s">
+        <v>92</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F59" t="s">
+        <v>63</v>
+      </c>
+      <c r="G59" t="s">
+        <v>119</v>
+      </c>
+      <c r="H59" t="str">
+        <f t="shared" si="5"/>
+        <v>СНП268-37ВП31-3-5-В</v>
+      </c>
+      <c r="I59" t="str">
+        <f t="shared" si="6"/>
+        <v>Вилка СНП268-37ВП31-3-5-В БСАР.430420.014ТУ</v>
+      </c>
+      <c r="J59" t="s">
+        <v>119</v>
+      </c>
+      <c r="K59" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B60" t="s">
+        <v>71</v>
+      </c>
+      <c r="C60" t="s">
+        <v>85</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F60" t="s">
+        <v>65</v>
+      </c>
+      <c r="H60" t="str">
+        <f t="shared" si="5"/>
+        <v>DS1037-15F</v>
+      </c>
+      <c r="I60" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">Розетка DS1037-15F </v>
+      </c>
+      <c r="J60" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B61" t="s">
+        <v>73</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F61" t="s">
+        <v>65</v>
+      </c>
+      <c r="H61" t="str">
+        <f t="shared" si="5"/>
+        <v>DS1037-25F</v>
+      </c>
+      <c r="I61" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">Розетка DS1037-25F </v>
+      </c>
+      <c r="J61" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>188</v>
+      </c>
+      <c r="B62" t="s">
+        <v>103</v>
+      </c>
+      <c r="C62" t="s">
+        <v>101</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F62" t="s">
+        <v>68</v>
+      </c>
+      <c r="G62" t="s">
+        <v>122</v>
+      </c>
+      <c r="H62" t="s">
+        <v>68</v>
+      </c>
+      <c r="I62" t="str">
+        <f t="shared" si="6"/>
+        <v>Лепесток 2-1,0-4,0-14-04 ГОСТ 16840-78</v>
+      </c>
+      <c r="J62" t="s">
+        <v>122</v>
+      </c>
+      <c r="K62" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/ConnectorsGOST.xlsx
+++ b/ConnectorsGOST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lab431_Oktava\Desktop\LezhnevV\testGOST\Libraries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC28297-9633-44D3-8D92-B357850FCEED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7329D144-5811-4194-AF67-90F0D594A5FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="193">
   <si>
     <t>M30 HDMI Adapter 1310-1033-02</t>
   </si>
@@ -605,6 +605,15 @@
   </si>
   <si>
     <t>2-1,0-3,0-11-04</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>Connector</t>
+  </si>
+  <si>
+    <t>DS1021-1x3</t>
   </si>
 </sst>
 </file>
@@ -955,10 +964,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K62"/>
+  <dimension ref="A1:L62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -970,9 +979,10 @@
     <col min="9" max="9" width="60.7109375" customWidth="1"/>
     <col min="10" max="10" width="20.140625" customWidth="1"/>
     <col min="11" max="11" width="45.28515625" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -1006,8 +1016,11 @@
       <c r="K1" s="3" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -1043,8 +1056,11 @@
       <c r="K2" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -1071,8 +1087,11 @@
       <c r="K3" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>37</v>
       </c>
@@ -1102,8 +1121,11 @@
       <c r="K4" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -1133,8 +1155,11 @@
       <c r="K5" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -1170,8 +1195,11 @@
       <c r="K6" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -1207,8 +1235,11 @@
       <c r="K7" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>41</v>
       </c>
@@ -1244,8 +1275,11 @@
       <c r="K8" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L8" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -1281,8 +1315,11 @@
       <c r="K9" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L9" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>43</v>
       </c>
@@ -1318,8 +1355,11 @@
       <c r="K10" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L10" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>44</v>
       </c>
@@ -1355,8 +1395,11 @@
       <c r="K11" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L11" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>45</v>
       </c>
@@ -1392,8 +1435,11 @@
       <c r="K12" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L12" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>46</v>
       </c>
@@ -1429,8 +1475,11 @@
       <c r="K13" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L13" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>47</v>
       </c>
@@ -1466,8 +1515,11 @@
       <c r="K14" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L14" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>48</v>
       </c>
@@ -1503,8 +1555,11 @@
       <c r="K15" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L15" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>49</v>
       </c>
@@ -1540,8 +1595,11 @@
       <c r="K16" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L16" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>50</v>
       </c>
@@ -1577,8 +1635,11 @@
       <c r="K17" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L17" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -1614,8 +1675,11 @@
       <c r="K18" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L18" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>52</v>
       </c>
@@ -1651,8 +1715,11 @@
       <c r="K19" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L19" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>53</v>
       </c>
@@ -1688,8 +1755,11 @@
       <c r="K20" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L20" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>54</v>
       </c>
@@ -1725,8 +1795,11 @@
       <c r="K21" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L21" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>55</v>
       </c>
@@ -1762,8 +1835,11 @@
       <c r="K22" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L22" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>56</v>
       </c>
@@ -1790,8 +1866,11 @@
       <c r="K23" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L23" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>96</v>
       </c>
@@ -1821,8 +1900,11 @@
       <c r="K24" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L24" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>58</v>
       </c>
@@ -1852,8 +1934,11 @@
       <c r="K25" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L25" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>59</v>
       </c>
@@ -1880,8 +1965,11 @@
       <c r="K26" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L26" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>60</v>
       </c>
@@ -1908,8 +1996,11 @@
       <c r="K27" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L27" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>61</v>
       </c>
@@ -1936,8 +2027,11 @@
       <c r="K28" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L28" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>189</v>
       </c>
@@ -1972,8 +2066,11 @@
       <c r="K29" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L29" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>100</v>
       </c>
@@ -2004,8 +2101,11 @@
       <c r="K30" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L30" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>115</v>
       </c>
@@ -2041,8 +2141,11 @@
       <c r="K31" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L31" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>116</v>
       </c>
@@ -2078,8 +2181,11 @@
       <c r="K32" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L32" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>117</v>
       </c>
@@ -2115,8 +2221,11 @@
       <c r="K33" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L33" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>123</v>
       </c>
@@ -2152,8 +2261,11 @@
       <c r="K34" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L34" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>124</v>
       </c>
@@ -2189,8 +2301,11 @@
       <c r="K35" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L35" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>125</v>
       </c>
@@ -2226,8 +2341,11 @@
       <c r="K36" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L36" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>126</v>
       </c>
@@ -2263,8 +2381,11 @@
       <c r="K37" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L37" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>128</v>
       </c>
@@ -2300,8 +2421,11 @@
       <c r="K38" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L38" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>127</v>
       </c>
@@ -2337,8 +2461,11 @@
       <c r="K39" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L39" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>135</v>
       </c>
@@ -2374,8 +2501,11 @@
       <c r="K40" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L40" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>137</v>
       </c>
@@ -2404,8 +2534,11 @@
       <c r="J41" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L41" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>140</v>
       </c>
@@ -2434,10 +2567,13 @@
       <c r="J42" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L42" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>143</v>
+        <v>192</v>
       </c>
       <c r="B43" t="s">
         <v>143</v>
@@ -2456,10 +2592,13 @@
       </c>
       <c r="I43" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve"> Щуп </v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+        <v xml:space="preserve"> DS1021-1x3 </v>
+      </c>
+      <c r="L43" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>144</v>
       </c>
@@ -2486,8 +2625,11 @@
       <c r="J44" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L44" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>160</v>
       </c>
@@ -2523,8 +2665,11 @@
       <c r="K45" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L45" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>161</v>
       </c>
@@ -2560,8 +2705,11 @@
       <c r="K46" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L46" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>162</v>
       </c>
@@ -2597,8 +2745,11 @@
       <c r="K47" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L47" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>165</v>
       </c>
@@ -2634,8 +2785,11 @@
       <c r="K48" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L48" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>168</v>
       </c>
@@ -2667,8 +2821,11 @@
       <c r="J49" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L49" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>182</v>
       </c>
@@ -2698,8 +2855,11 @@
       <c r="J50" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L50" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>171</v>
       </c>
@@ -2728,8 +2888,11 @@
       <c r="J51" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L51" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>183</v>
       </c>
@@ -2759,8 +2922,11 @@
       <c r="J52" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L52" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>184</v>
       </c>
@@ -2790,8 +2956,11 @@
       <c r="J53" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L53" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>175</v>
       </c>
@@ -2820,8 +2989,11 @@
       <c r="J54" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L54" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>185</v>
       </c>
@@ -2851,8 +3023,11 @@
       <c r="J55" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L55" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>186</v>
       </c>
@@ -2882,8 +3057,11 @@
       <c r="J56" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L56" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>179</v>
       </c>
@@ -2919,8 +3097,11 @@
       <c r="K57" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L57" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>180</v>
       </c>
@@ -2956,8 +3137,11 @@
       <c r="K58" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L58" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>181</v>
       </c>
@@ -2993,8 +3177,11 @@
       <c r="K59" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L59" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>177</v>
       </c>
@@ -3024,8 +3211,11 @@
       <c r="J60" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L60" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>178</v>
       </c>
@@ -3055,8 +3245,11 @@
       <c r="J61" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L61" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>188</v>
       </c>
@@ -3090,6 +3283,9 @@
       </c>
       <c r="K62" t="s">
         <v>150</v>
+      </c>
+      <c r="L62" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>

--- a/ConnectorsGOST.xlsx
+++ b/ConnectorsGOST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lab431_Oktava\Desktop\LezhnevV\testGOST\Libraries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7329D144-5811-4194-AF67-90F0D594A5FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F747C68D-E57B-4A1C-BE55-3BDEA7EF4ED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="194">
   <si>
     <t>M30 HDMI Adapter 1310-1033-02</t>
   </si>
@@ -614,6 +614,9 @@
   </si>
   <si>
     <t>DS1021-1x3</t>
+  </si>
+  <si>
+    <t>КудаВходит</t>
   </si>
 </sst>
 </file>
@@ -964,10 +967,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L62"/>
+  <dimension ref="A1:M62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -980,9 +983,10 @@
     <col min="10" max="10" width="20.140625" customWidth="1"/>
     <col min="11" max="11" width="45.28515625" customWidth="1"/>
     <col min="12" max="12" width="12.140625" customWidth="1"/>
+    <col min="13" max="13" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -1019,8 +1023,11 @@
       <c r="L1" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -1060,7 +1067,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -1091,7 +1098,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>37</v>
       </c>
@@ -1125,7 +1132,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -1159,7 +1166,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -1199,7 +1206,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -1239,7 +1246,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>41</v>
       </c>
@@ -1279,7 +1286,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -1319,7 +1326,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>43</v>
       </c>
@@ -1359,7 +1366,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>44</v>
       </c>
@@ -1399,7 +1406,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>45</v>
       </c>
@@ -1439,7 +1446,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>46</v>
       </c>
@@ -1479,7 +1486,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>47</v>
       </c>
@@ -1519,7 +1526,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>48</v>
       </c>
@@ -1559,7 +1566,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>49</v>
       </c>

--- a/ConnectorsGOST.xlsx
+++ b/ConnectorsGOST.xlsx
@@ -5,30 +5,21 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lab431_Oktava\Desktop\LezhnevV\testGOST\Libraries\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\git\GitHub\LibrariesGOST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F747C68D-E57B-4A1C-BE55-3BDEA7EF4ED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{292AF3E9-4C42-42DB-B3FA-C61952652D30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="РБН" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -595,9 +586,6 @@
     <t>DS1033-25F</t>
   </si>
   <si>
-    <t>DS1033-37M</t>
-  </si>
-  <si>
     <t>СНП377-12ВП</t>
   </si>
   <si>
@@ -617,6 +605,9 @@
   </si>
   <si>
     <t>КудаВходит</t>
+  </si>
+  <si>
+    <t>DS1037-37M</t>
   </si>
 </sst>
 </file>
@@ -969,8 +960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1021,10 +1012,10 @@
         <v>148</v>
       </c>
       <c r="L1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -1064,7 +1055,7 @@
         <v>149</v>
       </c>
       <c r="L2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -1095,7 +1086,7 @@
         <v>154</v>
       </c>
       <c r="L3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -1129,7 +1120,7 @@
         <v>154</v>
       </c>
       <c r="L4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -1163,7 +1154,7 @@
         <v>154</v>
       </c>
       <c r="L5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -1203,7 +1194,7 @@
         <v>149</v>
       </c>
       <c r="L6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -1243,7 +1234,7 @@
         <v>149</v>
       </c>
       <c r="L7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -1283,7 +1274,7 @@
         <v>149</v>
       </c>
       <c r="L8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -1323,7 +1314,7 @@
         <v>149</v>
       </c>
       <c r="L9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -1363,7 +1354,7 @@
         <v>149</v>
       </c>
       <c r="L10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -1403,7 +1394,7 @@
         <v>149</v>
       </c>
       <c r="L11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -1443,7 +1434,7 @@
         <v>149</v>
       </c>
       <c r="L12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -1483,7 +1474,7 @@
         <v>149</v>
       </c>
       <c r="L13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -1523,7 +1514,7 @@
         <v>149</v>
       </c>
       <c r="L14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -1563,7 +1554,7 @@
         <v>149</v>
       </c>
       <c r="L15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -1603,7 +1594,7 @@
         <v>149</v>
       </c>
       <c r="L16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -1643,7 +1634,7 @@
         <v>149</v>
       </c>
       <c r="L17" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -1683,7 +1674,7 @@
         <v>149</v>
       </c>
       <c r="L18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -1723,7 +1714,7 @@
         <v>149</v>
       </c>
       <c r="L19" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -1763,7 +1754,7 @@
         <v>149</v>
       </c>
       <c r="L20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -1803,7 +1794,7 @@
         <v>149</v>
       </c>
       <c r="L21" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -1843,7 +1834,7 @@
         <v>149</v>
       </c>
       <c r="L22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -1874,7 +1865,7 @@
         <v>154</v>
       </c>
       <c r="L23" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -1908,7 +1899,7 @@
         <v>154</v>
       </c>
       <c r="L24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -1942,7 +1933,7 @@
         <v>154</v>
       </c>
       <c r="L25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -1973,7 +1964,7 @@
         <v>158</v>
       </c>
       <c r="L26" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -2004,7 +1995,7 @@
         <v>159</v>
       </c>
       <c r="L27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -2035,12 +2026,12 @@
         <v>152</v>
       </c>
       <c r="L28" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B29" t="s">
         <v>103</v>
@@ -2074,7 +2065,7 @@
         <v>150</v>
       </c>
       <c r="L29" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -2109,7 +2100,7 @@
         <v>150</v>
       </c>
       <c r="L30" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -2149,7 +2140,7 @@
         <v>149</v>
       </c>
       <c r="L31" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -2189,7 +2180,7 @@
         <v>149</v>
       </c>
       <c r="L32" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -2229,7 +2220,7 @@
         <v>149</v>
       </c>
       <c r="L33" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -2269,7 +2260,7 @@
         <v>149</v>
       </c>
       <c r="L34" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -2309,7 +2300,7 @@
         <v>149</v>
       </c>
       <c r="L35" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -2349,7 +2340,7 @@
         <v>149</v>
       </c>
       <c r="L36" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -2389,7 +2380,7 @@
         <v>149</v>
       </c>
       <c r="L37" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -2429,7 +2420,7 @@
         <v>149</v>
       </c>
       <c r="L38" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -2469,7 +2460,7 @@
         <v>149</v>
       </c>
       <c r="L39" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -2509,7 +2500,7 @@
         <v>149</v>
       </c>
       <c r="L40" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -2542,7 +2533,7 @@
         <v>151</v>
       </c>
       <c r="L41" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -2575,12 +2566,12 @@
         <v>151</v>
       </c>
       <c r="L42" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B43" t="s">
         <v>143</v>
@@ -2602,7 +2593,7 @@
         <v xml:space="preserve"> DS1021-1x3 </v>
       </c>
       <c r="L43" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -2633,7 +2624,7 @@
         <v>151</v>
       </c>
       <c r="L44" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
@@ -2673,7 +2664,7 @@
         <v>149</v>
       </c>
       <c r="L45" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -2713,7 +2704,7 @@
         <v>149</v>
       </c>
       <c r="L46" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
@@ -2753,7 +2744,7 @@
         <v>149</v>
       </c>
       <c r="L47" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
@@ -2793,7 +2784,7 @@
         <v>154</v>
       </c>
       <c r="L48" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
@@ -2829,7 +2820,7 @@
         <v>170</v>
       </c>
       <c r="L49" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
@@ -2863,7 +2854,7 @@
         <v>151</v>
       </c>
       <c r="L50" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
@@ -2896,7 +2887,7 @@
         <v>151</v>
       </c>
       <c r="L51" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
@@ -2930,7 +2921,7 @@
         <v>151</v>
       </c>
       <c r="L52" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
@@ -2964,7 +2955,7 @@
         <v>151</v>
       </c>
       <c r="L53" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
@@ -2972,7 +2963,7 @@
         <v>175</v>
       </c>
       <c r="B54" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C54" t="s">
         <v>176</v>
@@ -2997,7 +2988,7 @@
         <v>151</v>
       </c>
       <c r="L54" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
@@ -3031,12 +3022,12 @@
         <v>151</v>
       </c>
       <c r="L55" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="B56" t="s">
         <v>77</v>
@@ -3055,17 +3046,17 @@
       </c>
       <c r="H56" t="str">
         <f t="shared" si="5"/>
-        <v>DS1033-37M</v>
+        <v>DS1037-37M</v>
       </c>
       <c r="I56" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">Вилка DS1033-37M </v>
+        <v xml:space="preserve">Вилка DS1037-37M </v>
       </c>
       <c r="J56" t="s">
         <v>151</v>
       </c>
       <c r="L56" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
@@ -3105,7 +3096,7 @@
         <v>149</v>
       </c>
       <c r="L57" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
@@ -3145,7 +3136,7 @@
         <v>149</v>
       </c>
       <c r="L58" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
@@ -3185,7 +3176,7 @@
         <v>149</v>
       </c>
       <c r="L59" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
@@ -3219,7 +3210,7 @@
         <v>151</v>
       </c>
       <c r="L60" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
@@ -3253,12 +3244,12 @@
         <v>151</v>
       </c>
       <c r="L61" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B62" t="s">
         <v>103</v>
@@ -3292,7 +3283,7 @@
         <v>150</v>
       </c>
       <c r="L62" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>

--- a/ConnectorsGOST.xlsx
+++ b/ConnectorsGOST.xlsx
@@ -1,32 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\git\GitHub\LibrariesGOST\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LezhnevV\testGOST\Libraries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{292AF3E9-4C42-42DB-B3FA-C61952652D30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C6F2A57-88A5-4FC1-A29B-46E290BD249A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="РБН" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="195">
   <si>
     <t>M30 HDMI Adapter 1310-1033-02</t>
   </si>
@@ -608,6 +617,9 @@
   </si>
   <si>
     <t>DS1037-37M</t>
+  </si>
+  <si>
+    <t>Коммент</t>
   </si>
 </sst>
 </file>
@@ -958,10 +970,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M62"/>
+  <dimension ref="A1:N62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -977,7 +989,7 @@
     <col min="13" max="13" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -1017,8 +1029,11 @@
       <c r="M1" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N1" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -1058,7 +1073,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -1089,7 +1104,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>37</v>
       </c>
@@ -1123,7 +1138,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -1157,7 +1172,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -1197,7 +1212,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -1237,7 +1252,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>41</v>
       </c>
@@ -1277,7 +1292,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -1317,7 +1332,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>43</v>
       </c>
@@ -1357,7 +1372,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>44</v>
       </c>
@@ -1397,7 +1412,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>45</v>
       </c>
@@ -1437,7 +1452,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>46</v>
       </c>
@@ -1477,7 +1492,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>47</v>
       </c>
@@ -1517,7 +1532,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>48</v>
       </c>
@@ -1557,7 +1572,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>49</v>
       </c>

--- a/ConnectorsGOST.xlsx
+++ b/ConnectorsGOST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LezhnevV\testGOST\Libraries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C6F2A57-88A5-4FC1-A29B-46E290BD249A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{958D4DD6-F557-40C6-B313-92835E5D3096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="199">
   <si>
     <t>M30 HDMI Adapter 1310-1033-02</t>
   </si>
@@ -620,6 +620,18 @@
   </si>
   <si>
     <t>Коммент</t>
+  </si>
+  <si>
+    <t>СНП268-9РП31-1-3-В</t>
+  </si>
+  <si>
+    <t>СНП268-9РП21-1-В</t>
+  </si>
+  <si>
+    <t>СНП268-15ВП21-1-В</t>
+  </si>
+  <si>
+    <t>DS1033-15M</t>
   </si>
 </sst>
 </file>
@@ -970,10 +982,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N62"/>
+  <dimension ref="A1:N66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M38" sqref="M38"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G71" sqref="G71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3030,7 +3042,7 @@
         <v>DS1033-25F</v>
       </c>
       <c r="I55" t="str">
-        <f t="shared" ref="I55:I62" si="6">F55&amp;" "&amp;A55&amp;" "&amp;G55</f>
+        <f t="shared" ref="I55:I63" si="6">F55&amp;" "&amp;A55&amp;" "&amp;G55</f>
         <v xml:space="preserve">Розетка DS1033-25F </v>
       </c>
       <c r="J55" t="s">
@@ -3298,6 +3310,160 @@
         <v>150</v>
       </c>
       <c r="L62" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>195</v>
+      </c>
+      <c r="B63" t="s">
+        <v>70</v>
+      </c>
+      <c r="C63" t="s">
+        <v>136</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F63" t="s">
+        <v>65</v>
+      </c>
+      <c r="G63" t="s">
+        <v>119</v>
+      </c>
+      <c r="H63" t="str">
+        <f t="shared" ref="H63" si="7">A63</f>
+        <v>СНП268-9РП31-1-3-В</v>
+      </c>
+      <c r="I63" t="str">
+        <f t="shared" si="6"/>
+        <v>Розетка СНП268-9РП31-1-3-В БСАР.430420.014ТУ</v>
+      </c>
+      <c r="J63" t="s">
+        <v>119</v>
+      </c>
+      <c r="K63" t="s">
+        <v>149</v>
+      </c>
+      <c r="L63" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>196</v>
+      </c>
+      <c r="B64" t="s">
+        <v>70</v>
+      </c>
+      <c r="C64" t="s">
+        <v>83</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F64" t="s">
+        <v>65</v>
+      </c>
+      <c r="G64" t="s">
+        <v>119</v>
+      </c>
+      <c r="H64" t="str">
+        <f t="shared" ref="H64:H65" si="8">A64</f>
+        <v>СНП268-9РП21-1-В</v>
+      </c>
+      <c r="I64" t="str">
+        <f t="shared" ref="I64" si="9">F64&amp;" "&amp;A64&amp;" "&amp;G64</f>
+        <v>Розетка СНП268-9РП21-1-В БСАР.430420.014ТУ</v>
+      </c>
+      <c r="J64" t="s">
+        <v>119</v>
+      </c>
+      <c r="K64" t="s">
+        <v>149</v>
+      </c>
+      <c r="L64" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>197</v>
+      </c>
+      <c r="B65" t="s">
+        <v>75</v>
+      </c>
+      <c r="C65" t="s">
+        <v>82</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F65" t="s">
+        <v>65</v>
+      </c>
+      <c r="G65" t="s">
+        <v>119</v>
+      </c>
+      <c r="H65" t="str">
+        <f t="shared" ref="H65:H66" si="10">A65</f>
+        <v>СНП268-15ВП21-1-В</v>
+      </c>
+      <c r="I65" t="str">
+        <f t="shared" ref="I65:I66" si="11">F65&amp;" "&amp;A65&amp;" "&amp;G65</f>
+        <v>Розетка СНП268-15ВП21-1-В БСАР.430420.014ТУ</v>
+      </c>
+      <c r="J65" t="s">
+        <v>119</v>
+      </c>
+      <c r="K65" t="s">
+        <v>149</v>
+      </c>
+      <c r="L65" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B66" t="s">
+        <v>75</v>
+      </c>
+      <c r="C66" t="s">
+        <v>82</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F66" t="s">
+        <v>65</v>
+      </c>
+      <c r="H66" t="str">
+        <f t="shared" si="10"/>
+        <v>DS1033-15M</v>
+      </c>
+      <c r="I66" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">Розетка DS1033-15M </v>
+      </c>
+      <c r="J66" t="s">
+        <v>151</v>
+      </c>
+      <c r="L66" t="s">
         <v>190</v>
       </c>
     </row>

--- a/ConnectorsGOST.xlsx
+++ b/ConnectorsGOST.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LezhnevV\testGOST\Libraries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{958D4DD6-F557-40C6-B313-92835E5D3096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98D00927-1459-4854-9344-84758A16B9AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="202">
   <si>
     <t>M30 HDMI Adapter 1310-1033-02</t>
   </si>
@@ -632,6 +632,15 @@
   </si>
   <si>
     <t>DS1033-15M</t>
+  </si>
+  <si>
+    <t>ООО "СКБ "Элемент"</t>
+  </si>
+  <si>
+    <t>Connfly Electronic Co.</t>
+  </si>
+  <si>
+    <t>Амитрон электроникс</t>
   </si>
 </sst>
 </file>
@@ -984,8 +993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G71" sqref="G71"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K50" sqref="K50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2592,6 +2601,9 @@
       <c r="J42" t="s">
         <v>151</v>
       </c>
+      <c r="K42" t="s">
+        <v>200</v>
+      </c>
       <c r="L42" t="s">
         <v>190</v>
       </c>
@@ -2619,6 +2631,9 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve"> DS1021-1x3 </v>
       </c>
+      <c r="K43" t="s">
+        <v>200</v>
+      </c>
       <c r="L43" t="s">
         <v>190</v>
       </c>
@@ -2650,6 +2665,9 @@
       <c r="J44" t="s">
         <v>151</v>
       </c>
+      <c r="K44" t="s">
+        <v>199</v>
+      </c>
       <c r="L44" t="s">
         <v>190</v>
       </c>
@@ -2846,6 +2864,9 @@
       <c r="J49" t="s">
         <v>170</v>
       </c>
+      <c r="K49" t="s">
+        <v>201</v>
+      </c>
       <c r="L49" t="s">
         <v>190</v>
       </c>
@@ -2880,6 +2901,9 @@
       <c r="J50" t="s">
         <v>151</v>
       </c>
+      <c r="K50" t="s">
+        <v>200</v>
+      </c>
       <c r="L50" t="s">
         <v>190</v>
       </c>
@@ -2913,6 +2937,9 @@
       <c r="J51" t="s">
         <v>151</v>
       </c>
+      <c r="K51" t="s">
+        <v>200</v>
+      </c>
       <c r="L51" t="s">
         <v>190</v>
       </c>
@@ -2947,6 +2974,9 @@
       <c r="J52" t="s">
         <v>151</v>
       </c>
+      <c r="K52" t="s">
+        <v>200</v>
+      </c>
       <c r="L52" t="s">
         <v>190</v>
       </c>
@@ -2981,6 +3011,9 @@
       <c r="J53" t="s">
         <v>151</v>
       </c>
+      <c r="K53" t="s">
+        <v>200</v>
+      </c>
       <c r="L53" t="s">
         <v>190</v>
       </c>
@@ -3014,6 +3047,9 @@
       <c r="J54" t="s">
         <v>151</v>
       </c>
+      <c r="K54" t="s">
+        <v>200</v>
+      </c>
       <c r="L54" t="s">
         <v>190</v>
       </c>
@@ -3048,6 +3084,9 @@
       <c r="J55" t="s">
         <v>151</v>
       </c>
+      <c r="K55" t="s">
+        <v>200</v>
+      </c>
       <c r="L55" t="s">
         <v>190</v>
       </c>
@@ -3082,6 +3121,9 @@
       <c r="J56" t="s">
         <v>151</v>
       </c>
+      <c r="K56" t="s">
+        <v>200</v>
+      </c>
       <c r="L56" t="s">
         <v>190</v>
       </c>
@@ -3236,6 +3278,9 @@
       <c r="J60" t="s">
         <v>151</v>
       </c>
+      <c r="K60" t="s">
+        <v>200</v>
+      </c>
       <c r="L60" t="s">
         <v>190</v>
       </c>
@@ -3270,6 +3315,9 @@
       <c r="J61" t="s">
         <v>151</v>
       </c>
+      <c r="K61" t="s">
+        <v>200</v>
+      </c>
       <c r="L61" t="s">
         <v>190</v>
       </c>
@@ -3376,7 +3424,7 @@
         <v>119</v>
       </c>
       <c r="H64" t="str">
-        <f t="shared" ref="H64:H65" si="8">A64</f>
+        <f t="shared" ref="H64" si="8">A64</f>
         <v>СНП268-9РП21-1-В</v>
       </c>
       <c r="I64" t="str">

--- a/ConnectorsGOST.xlsx
+++ b/ConnectorsGOST.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LezhnevV\testGOST\Libraries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98D00927-1459-4854-9344-84758A16B9AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B9AA013-A818-44A1-8047-AC2D0C89D78B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="203">
   <si>
     <t>M30 HDMI Adapter 1310-1033-02</t>
   </si>
@@ -641,6 +641,9 @@
   </si>
   <si>
     <t>Амитрон электроникс</t>
+  </si>
+  <si>
+    <t>DS1037-9F</t>
   </si>
 </sst>
 </file>
@@ -991,10 +994,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N66"/>
+  <dimension ref="A1:N67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K50" sqref="K50"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D67" sqref="D67:L67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3464,11 +3467,11 @@
         <v>119</v>
       </c>
       <c r="H65" t="str">
-        <f t="shared" ref="H65:H66" si="10">A65</f>
+        <f t="shared" ref="H65:H67" si="10">A65</f>
         <v>СНП268-15ВП21-1-В</v>
       </c>
       <c r="I65" t="str">
-        <f t="shared" ref="I65:I66" si="11">F65&amp;" "&amp;A65&amp;" "&amp;G65</f>
+        <f t="shared" ref="I65:I67" si="11">F65&amp;" "&amp;A65&amp;" "&amp;G65</f>
         <v>Розетка СНП268-15ВП21-1-В БСАР.430420.014ТУ</v>
       </c>
       <c r="J65" t="s">
@@ -3512,6 +3515,43 @@
         <v>151</v>
       </c>
       <c r="L66" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B67" t="s">
+        <v>70</v>
+      </c>
+      <c r="C67" t="s">
+        <v>118</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F67" t="s">
+        <v>65</v>
+      </c>
+      <c r="H67" t="str">
+        <f t="shared" si="10"/>
+        <v>DS1037-9F</v>
+      </c>
+      <c r="I67" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">Розетка DS1037-9F </v>
+      </c>
+      <c r="J67" t="s">
+        <v>151</v>
+      </c>
+      <c r="K67" t="s">
+        <v>200</v>
+      </c>
+      <c r="L67" t="s">
         <v>190</v>
       </c>
     </row>

--- a/ConnectorsGOST.xlsx
+++ b/ConnectorsGOST.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LezhnevV\testGOST\Libraries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B9AA013-A818-44A1-8047-AC2D0C89D78B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83347715-DB44-4153-A2CD-DF5601DB6CEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1575" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="204">
   <si>
     <t>M30 HDMI Adapter 1310-1033-02</t>
   </si>
@@ -644,6 +644,9 @@
   </si>
   <si>
     <t>DS1037-9F</t>
+  </si>
+  <si>
+    <t>DS1037-37F</t>
   </si>
 </sst>
 </file>
@@ -994,10 +997,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N67"/>
+  <dimension ref="A1:N69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67:L67"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3372,7 +3375,7 @@
         <v>70</v>
       </c>
       <c r="C63" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>79</v>
@@ -3412,7 +3415,7 @@
         <v>70</v>
       </c>
       <c r="C64" t="s">
-        <v>83</v>
+        <v>173</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>79</v>
@@ -3467,11 +3470,11 @@
         <v>119</v>
       </c>
       <c r="H65" t="str">
-        <f t="shared" ref="H65:H67" si="10">A65</f>
+        <f t="shared" ref="H65:H69" si="10">A65</f>
         <v>СНП268-15ВП21-1-В</v>
       </c>
       <c r="I65" t="str">
-        <f t="shared" ref="I65:I67" si="11">F65&amp;" "&amp;A65&amp;" "&amp;G65</f>
+        <f t="shared" ref="I65:I69" si="11">F65&amp;" "&amp;A65&amp;" "&amp;G65</f>
         <v>Розетка СНП268-15ВП21-1-В БСАР.430420.014ТУ</v>
       </c>
       <c r="J65" t="s">
@@ -3552,6 +3555,83 @@
         <v>200</v>
       </c>
       <c r="L67" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>203</v>
+      </c>
+      <c r="B68" t="s">
+        <v>76</v>
+      </c>
+      <c r="C68" t="s">
+        <v>91</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F68" t="s">
+        <v>65</v>
+      </c>
+      <c r="H68" t="str">
+        <f t="shared" si="10"/>
+        <v>DS1037-37F</v>
+      </c>
+      <c r="I68" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">Розетка DS1037-37F </v>
+      </c>
+      <c r="J68" t="s">
+        <v>151</v>
+      </c>
+      <c r="K68" t="s">
+        <v>200</v>
+      </c>
+      <c r="L68" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>45</v>
+      </c>
+      <c r="B69" t="s">
+        <v>73</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F69" t="s">
+        <v>65</v>
+      </c>
+      <c r="G69" t="s">
+        <v>119</v>
+      </c>
+      <c r="H69" t="str">
+        <f t="shared" si="10"/>
+        <v>СНП268-25РП31-1-3-В</v>
+      </c>
+      <c r="I69" t="str">
+        <f t="shared" si="11"/>
+        <v>Розетка СНП268-25РП31-1-3-В БСАР.430420.014ТУ</v>
+      </c>
+      <c r="J69" t="s">
+        <v>119</v>
+      </c>
+      <c r="K69" t="s">
+        <v>149</v>
+      </c>
+      <c r="L69" t="s">
         <v>190</v>
       </c>
     </row>

--- a/ConnectorsGOST.xlsx
+++ b/ConnectorsGOST.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LezhnevV\testGOST\Libraries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83347715-DB44-4153-A2CD-DF5601DB6CEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63BA1711-E966-442A-A907-4B8B51BF9EDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1575" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="205">
   <si>
     <t>M30 HDMI Adapter 1310-1033-02</t>
   </si>
@@ -647,6 +647,9 @@
   </si>
   <si>
     <t>DS1037-37F</t>
+  </si>
+  <si>
+    <t>DS1037-9M</t>
   </si>
 </sst>
 </file>
@@ -997,10 +1000,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N69"/>
+  <dimension ref="A1:N70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F66" sqref="F66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3464,7 +3467,7 @@
         <v>80</v>
       </c>
       <c r="F65" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G65" t="s">
         <v>119</v>
@@ -3475,7 +3478,7 @@
       </c>
       <c r="I65" t="str">
         <f t="shared" ref="I65:I69" si="11">F65&amp;" "&amp;A65&amp;" "&amp;G65</f>
-        <v>Розетка СНП268-15ВП21-1-В БСАР.430420.014ТУ</v>
+        <v>Вилка СНП268-15ВП21-1-В БСАР.430420.014ТУ</v>
       </c>
       <c r="J65" t="s">
         <v>119</v>
@@ -3504,7 +3507,7 @@
         <v>80</v>
       </c>
       <c r="F66" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H66" t="str">
         <f t="shared" si="10"/>
@@ -3512,7 +3515,7 @@
       </c>
       <c r="I66" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">Розетка DS1033-15M </v>
+        <v xml:space="preserve">Вилка DS1033-15M </v>
       </c>
       <c r="J66" t="s">
         <v>151</v>
@@ -3632,6 +3635,43 @@
         <v>149</v>
       </c>
       <c r="L69" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B70" t="s">
+        <v>69</v>
+      </c>
+      <c r="C70" t="s">
+        <v>136</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F70" t="s">
+        <v>63</v>
+      </c>
+      <c r="H70" t="str">
+        <f t="shared" ref="H70" si="12">A70</f>
+        <v>DS1037-9M</v>
+      </c>
+      <c r="I70" t="str">
+        <f t="shared" ref="I70" si="13">F70&amp;" "&amp;A70&amp;" "&amp;G70</f>
+        <v xml:space="preserve">Вилка DS1037-9M </v>
+      </c>
+      <c r="J70" t="s">
+        <v>151</v>
+      </c>
+      <c r="K70" t="s">
+        <v>200</v>
+      </c>
+      <c r="L70" t="s">
         <v>190</v>
       </c>
     </row>

--- a/ConnectorsGOST.xlsx
+++ b/ConnectorsGOST.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LezhnevV\testGOST\Libraries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A501B1B-2784-4F8C-8F6A-3215F6F11B8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C7B72FA-6D82-4F1B-9E51-E47F683CF8EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="222">
   <si>
     <t>M30 HDMI Adapter 1310-1033-02</t>
   </si>
@@ -283,21 +283,12 @@
     <t>DSUB15-В-Вер</t>
   </si>
   <si>
-    <t>DSUB9-В-Вер</t>
-  </si>
-  <si>
-    <t>DSUB15-В-УГ</t>
-  </si>
-  <si>
     <t>DSUB15-Р-УГ</t>
   </si>
   <si>
     <t>DSUB15-Р-Вер</t>
   </si>
   <si>
-    <t>DSUB25-В-УГ</t>
-  </si>
-  <si>
     <t>DSUB25-Р-УГ</t>
   </si>
   <si>
@@ -677,6 +668,39 @@
   </si>
   <si>
     <t>DSUB15-В-Вер-С</t>
+  </si>
+  <si>
+    <t>DSUB9-В-Вер-СНП</t>
+  </si>
+  <si>
+    <t>DSUB15-Р-УГ-СНП</t>
+  </si>
+  <si>
+    <t>DSUB15-Р-Вер-СНП</t>
+  </si>
+  <si>
+    <t>DSUB25-В-УГ-СНП</t>
+  </si>
+  <si>
+    <t>DSUB25-Р-УГ-СНП</t>
+  </si>
+  <si>
+    <t>DSUB25-В-Вер-СНП</t>
+  </si>
+  <si>
+    <t>DSUB15-В-УГ-СНП</t>
+  </si>
+  <si>
+    <t>DSUB37-Р-УГ-СНП</t>
+  </si>
+  <si>
+    <t>DSUB37-В-УГ-СНП</t>
+  </si>
+  <si>
+    <t>DSUB9-Р-УГ-СНП</t>
+  </si>
+  <si>
+    <t>DSUB9-В-УГ-СНП</t>
   </si>
 </sst>
 </file>
@@ -1029,8 +1053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1057,16 +1081,16 @@
         <v>28</v>
       </c>
       <c r="D1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E1" t="s">
         <v>29</v>
       </c>
       <c r="F1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H1" t="s">
         <v>30</v>
@@ -1078,22 +1102,22 @@
         <v>80</v>
       </c>
       <c r="K1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="N1" t="s">
+        <v>185</v>
+      </c>
+      <c r="O1" t="s">
         <v>188</v>
       </c>
-      <c r="O1" t="s">
-        <v>191</v>
-      </c>
       <c r="P1" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -1104,7 +1128,7 @@
         <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>82</v>
+        <v>211</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>78</v>
@@ -1119,7 +1143,7 @@
         <v>62</v>
       </c>
       <c r="I2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J2" t="str">
         <f t="shared" ref="J2:J28" si="0">A2</f>
@@ -1130,13 +1154,13 @@
         <v>Вилка СНП268-9ВП117-1-В БСАР.430420.014ТУ</v>
       </c>
       <c r="L2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="M2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="N2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -1153,7 +1177,7 @@
         <v>79</v>
       </c>
       <c r="I3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="J3" t="str">
         <f t="shared" si="0"/>
@@ -1164,13 +1188,13 @@
         <v xml:space="preserve"> СР-50-447ФВ  ВР0.364.039ТУ</v>
       </c>
       <c r="L3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="M3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="N3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -1190,7 +1214,7 @@
         <v>62</v>
       </c>
       <c r="I4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="J4" t="str">
         <f t="shared" si="0"/>
@@ -1201,13 +1225,13 @@
         <v>Вилка СР-50-726ФВ ВР0.364.049ТУ</v>
       </c>
       <c r="L4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="M4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="N4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -1227,7 +1251,7 @@
         <v>63</v>
       </c>
       <c r="I5" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="J5" t="str">
         <f t="shared" si="0"/>
@@ -1238,13 +1262,13 @@
         <v>Вилка приборная СР-50-960Ф ПЮЯИ.430424.029ТУ</v>
       </c>
       <c r="L5" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="M5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="N5" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -1255,10 +1279,10 @@
         <v>69</v>
       </c>
       <c r="C6" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D6" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>78</v>
@@ -1273,7 +1297,7 @@
         <v>64</v>
       </c>
       <c r="I6" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J6" t="str">
         <f t="shared" si="0"/>
@@ -1284,13 +1308,13 @@
         <v>Розетка СНП268-9РП11-0-В БСАР.430420.014ТУ</v>
       </c>
       <c r="L6" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="M6" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="N6" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -1301,10 +1325,10 @@
         <v>69</v>
       </c>
       <c r="C7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>78</v>
@@ -1319,7 +1343,7 @@
         <v>64</v>
       </c>
       <c r="I7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J7" t="str">
         <f t="shared" si="0"/>
@@ -1330,13 +1354,13 @@
         <v>Розетка СНП268-9РП11-1-В БСАР.430420.014ТУ</v>
       </c>
       <c r="L7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="M7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="N7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -1347,10 +1371,10 @@
         <v>68</v>
       </c>
       <c r="C8" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D8" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>78</v>
@@ -1365,7 +1389,7 @@
         <v>62</v>
       </c>
       <c r="I8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J8" t="str">
         <f t="shared" si="0"/>
@@ -1376,13 +1400,13 @@
         <v>Вилка СНП268-9ВП11-1-В БСАР.430420.014ТУ</v>
       </c>
       <c r="L8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="M8" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="N8" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -1393,7 +1417,7 @@
         <v>70</v>
       </c>
       <c r="C9" t="s">
-        <v>84</v>
+        <v>212</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>78</v>
@@ -1408,7 +1432,7 @@
         <v>64</v>
       </c>
       <c r="I9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J9" t="str">
         <f t="shared" si="0"/>
@@ -1419,13 +1443,13 @@
         <v>Розетка СНП268-15РП31-1-3-В БСАР.430420.014ТУ</v>
       </c>
       <c r="L9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="M9" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="N9" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -1436,10 +1460,10 @@
         <v>70</v>
       </c>
       <c r="C10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D10" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>78</v>
@@ -1454,7 +1478,7 @@
         <v>64</v>
       </c>
       <c r="I10" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J10" t="str">
         <f t="shared" si="0"/>
@@ -1465,13 +1489,13 @@
         <v>Розетка СНП268-15РП11-0-В БСАР.430420.014ТУ</v>
       </c>
       <c r="L10" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="M10" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="N10" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -1482,7 +1506,7 @@
         <v>71</v>
       </c>
       <c r="C11" t="s">
-        <v>86</v>
+        <v>214</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>78</v>
@@ -1497,7 +1521,7 @@
         <v>62</v>
       </c>
       <c r="I11" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J11" t="str">
         <f t="shared" si="0"/>
@@ -1508,13 +1532,13 @@
         <v>Вилка СНП268-25ВП31-1-3-В  БСАР.430420.014ТУ</v>
       </c>
       <c r="L11" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="M11" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="N11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -1525,7 +1549,7 @@
         <v>72</v>
       </c>
       <c r="C12" t="s">
-        <v>87</v>
+        <v>215</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>78</v>
@@ -1540,7 +1564,7 @@
         <v>64</v>
       </c>
       <c r="I12" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J12" t="str">
         <f t="shared" si="0"/>
@@ -1551,13 +1575,13 @@
         <v>Розетка СНП268-25РП31-1-3-В БСАР.430420.014ТУ</v>
       </c>
       <c r="L12" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="M12" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="N12" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -1568,7 +1592,7 @@
         <v>73</v>
       </c>
       <c r="C13" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>78</v>
@@ -1583,7 +1607,7 @@
         <v>62</v>
       </c>
       <c r="I13" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="J13" t="str">
         <f t="shared" si="0"/>
@@ -1594,13 +1618,13 @@
         <v>Вилка СНП347-20ВП21-В РЮМК.430420.012ТУ</v>
       </c>
       <c r="L13" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="M13" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="N13" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -1611,7 +1635,7 @@
         <v>71</v>
       </c>
       <c r="C14" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>78</v>
@@ -1626,7 +1650,7 @@
         <v>62</v>
       </c>
       <c r="I14" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J14" t="str">
         <f t="shared" si="0"/>
@@ -1637,13 +1661,13 @@
         <v>Вилка СНП268-25ВП11-0-В БСАР.430420.014ТУ</v>
       </c>
       <c r="L14" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="M14" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="N14" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -1657,7 +1681,7 @@
         <v>81</v>
       </c>
       <c r="D15" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>78</v>
@@ -1672,7 +1696,7 @@
         <v>62</v>
       </c>
       <c r="I15" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J15" t="str">
         <f t="shared" si="0"/>
@@ -1683,13 +1707,13 @@
         <v>Вилка СНП268-15ВП11-0-В БСАР.430420.014ТУ</v>
       </c>
       <c r="L15" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="M15" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="N15" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -1700,7 +1724,7 @@
         <v>74</v>
       </c>
       <c r="C16" t="s">
-        <v>83</v>
+        <v>217</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>78</v>
@@ -1715,7 +1739,7 @@
         <v>62</v>
       </c>
       <c r="I16" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J16" t="str">
         <f t="shared" si="0"/>
@@ -1726,13 +1750,13 @@
         <v>Вилка СНП268-15ВП31-1-3-В БСАР.430420.014ТУ</v>
       </c>
       <c r="L16" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="M16" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="N16" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -1743,7 +1767,7 @@
         <v>75</v>
       </c>
       <c r="C17" t="s">
-        <v>90</v>
+        <v>218</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>78</v>
@@ -1758,7 +1782,7 @@
         <v>64</v>
       </c>
       <c r="I17" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J17" t="str">
         <f t="shared" si="0"/>
@@ -1769,13 +1793,13 @@
         <v>Розетка СНП268-37РП31-1-3-В БСАР.430420.014ТУ</v>
       </c>
       <c r="L17" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="M17" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="N17" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -1786,10 +1810,10 @@
         <v>72</v>
       </c>
       <c r="C18" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D18" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>78</v>
@@ -1804,7 +1828,7 @@
         <v>64</v>
       </c>
       <c r="I18" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J18" t="str">
         <f t="shared" si="0"/>
@@ -1815,13 +1839,13 @@
         <v>Розетка СНП268-25РП11-0-В БСАР.430420.014ТУ</v>
       </c>
       <c r="L18" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="M18" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="N18" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -1832,7 +1856,7 @@
         <v>76</v>
       </c>
       <c r="C19" t="s">
-        <v>91</v>
+        <v>219</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>78</v>
@@ -1847,7 +1871,7 @@
         <v>62</v>
       </c>
       <c r="I19" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J19" t="str">
         <f t="shared" si="0"/>
@@ -1858,13 +1882,13 @@
         <v>Вилка СНП268-37ВП31-1-3-В БСАР.430420.014ТУ</v>
       </c>
       <c r="L19" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="M19" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="N19" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -1875,10 +1899,10 @@
         <v>76</v>
       </c>
       <c r="C20" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D20" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>78</v>
@@ -1893,7 +1917,7 @@
         <v>62</v>
       </c>
       <c r="I20" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J20" t="str">
         <f t="shared" si="0"/>
@@ -1904,13 +1928,13 @@
         <v>Вилка СНП268-37ВП11-0-В БСАР.430420.014ТУ</v>
       </c>
       <c r="L20" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="M20" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="N20" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -1921,10 +1945,10 @@
         <v>75</v>
       </c>
       <c r="C21" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D21" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>78</v>
@@ -1939,7 +1963,7 @@
         <v>64</v>
       </c>
       <c r="I21" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J21" t="str">
         <f t="shared" si="0"/>
@@ -1950,13 +1974,13 @@
         <v>Розетка СНП268-37РП11-0-В БСАР.430420.014ТУ</v>
       </c>
       <c r="L21" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="M21" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="N21" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -1967,7 +1991,7 @@
         <v>77</v>
       </c>
       <c r="C22" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>78</v>
@@ -1982,7 +2006,7 @@
         <v>62</v>
       </c>
       <c r="I22" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="J22" t="str">
         <f t="shared" si="0"/>
@@ -1993,13 +2017,13 @@
         <v>Вилка СНП377-5ВП21-1-07 РЮМК.430420.017ТУ</v>
       </c>
       <c r="L22" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M22" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="N22" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -2016,7 +2040,7 @@
         <v>79</v>
       </c>
       <c r="I23" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="J23" t="str">
         <f t="shared" si="0"/>
@@ -2027,18 +2051,18 @@
         <v xml:space="preserve"> СР-50-725ФВ ВР0.364.049ТУ</v>
       </c>
       <c r="L23" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="M23" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="N23" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>78</v>
@@ -2053,7 +2077,7 @@
         <v>65</v>
       </c>
       <c r="I24" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="J24" t="str">
         <f t="shared" si="0"/>
@@ -2064,13 +2088,13 @@
         <v>Вилка кабельная СР-50-722ФВ ВР0.364.049ТУ</v>
       </c>
       <c r="L24" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="M24" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="N24" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -2090,7 +2114,7 @@
         <v>65</v>
       </c>
       <c r="I25" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J25" t="str">
         <f t="shared" si="0"/>
@@ -2101,13 +2125,13 @@
         <v>Вилка кабельная СР-50-76ПВ ВР0.364.008ТУ</v>
       </c>
       <c r="L25" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="M25" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="N25" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
@@ -2135,13 +2159,13 @@
         <v xml:space="preserve">Розетка WBT-6001-201-0xxB-xx (Micro Fit) </v>
       </c>
       <c r="L26" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="M26" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="N26" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
@@ -2169,13 +2193,13 @@
         <v xml:space="preserve">Розетка MSTB 2,5/3-STF-5,08 </v>
       </c>
       <c r="L27" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="M27" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="N27" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -2203,24 +2227,24 @@
         <v xml:space="preserve">Нагрузка BNC-E50P </v>
       </c>
       <c r="L28" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="M28" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="N28" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B29" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C29" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>78</v>
@@ -2235,7 +2259,7 @@
         <v>67</v>
       </c>
       <c r="I29" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="J29" t="s">
         <v>67</v>
@@ -2245,25 +2269,25 @@
         <v>Лепесток 2-1,0-3,0-11-04 ГОСТ 16840-78</v>
       </c>
       <c r="L29" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="M29" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="N29" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B30" t="s">
+        <v>95</v>
+      </c>
+      <c r="C30" t="s">
         <v>98</v>
       </c>
-      <c r="C30" t="s">
-        <v>101</v>
-      </c>
       <c r="E30" s="2" t="s">
         <v>78</v>
       </c>
@@ -2274,7 +2298,7 @@
         <v>79</v>
       </c>
       <c r="I30" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="J30" t="s">
         <v>67</v>
@@ -2283,24 +2307,24 @@
         <v>23</v>
       </c>
       <c r="L30" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="M30" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="N30" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B31" t="s">
         <v>72</v>
       </c>
       <c r="C31" t="s">
-        <v>87</v>
+        <v>215</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>78</v>
@@ -2315,7 +2339,7 @@
         <v>64</v>
       </c>
       <c r="I31" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J31" t="str">
         <f t="shared" ref="J31:J40" si="2">A31</f>
@@ -2326,24 +2350,24 @@
         <v>Розетка СНП268-25РП31-3-3-В БСАР.430420.014ТУ</v>
       </c>
       <c r="L31" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="M31" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="N31" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B32" t="s">
         <v>69</v>
       </c>
       <c r="C32" t="s">
-        <v>117</v>
+        <v>220</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>78</v>
@@ -2358,7 +2382,7 @@
         <v>64</v>
       </c>
       <c r="I32" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J32" t="str">
         <f t="shared" si="2"/>
@@ -2369,24 +2393,24 @@
         <v>Розетка СНП268-9РП31-3-3-В БСАР.430420.014ТУ</v>
       </c>
       <c r="L32" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="M32" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="N32" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B33" t="s">
         <v>75</v>
       </c>
       <c r="C33" t="s">
-        <v>90</v>
+        <v>218</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>78</v>
@@ -2401,7 +2425,7 @@
         <v>64</v>
       </c>
       <c r="I33" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J33" t="str">
         <f t="shared" si="2"/>
@@ -2412,24 +2436,24 @@
         <v>Розетка СНП268-37РП31-3-3-В БСАР.430420.014ТУ</v>
       </c>
       <c r="L33" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="M33" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="N33" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B34" t="s">
         <v>71</v>
       </c>
       <c r="C34" t="s">
-        <v>86</v>
+        <v>214</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>78</v>
@@ -2444,7 +2468,7 @@
         <v>62</v>
       </c>
       <c r="I34" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J34" t="str">
         <f t="shared" si="2"/>
@@ -2455,24 +2479,24 @@
         <v>Вилка СНП268-25ВП31-3-3-В БСАР.430420.014ТУ</v>
       </c>
       <c r="L34" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="M34" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="N34" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B35" t="s">
         <v>76</v>
       </c>
       <c r="C35" t="s">
-        <v>91</v>
+        <v>219</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>78</v>
@@ -2487,7 +2511,7 @@
         <v>62</v>
       </c>
       <c r="I35" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J35" t="str">
         <f t="shared" si="2"/>
@@ -2498,24 +2522,24 @@
         <v>Вилка СНП268-37ВП31-3-3-В БСАР.430420.014ТУ</v>
       </c>
       <c r="L35" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="M35" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="N35" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B36" t="s">
         <v>74</v>
       </c>
       <c r="C36" t="s">
-        <v>83</v>
+        <v>217</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>78</v>
@@ -2530,7 +2554,7 @@
         <v>62</v>
       </c>
       <c r="I36" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J36" t="str">
         <f t="shared" si="2"/>
@@ -2541,24 +2565,24 @@
         <v>Вилка СНП268-15ВП31-3-3-В БСАР.430420.014ТУ</v>
       </c>
       <c r="L36" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="M36" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="N36" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>122</v>
+      </c>
+      <c r="B37" t="s">
         <v>125</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>128</v>
-      </c>
-      <c r="C37" t="s">
-        <v>131</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>78</v>
@@ -2573,7 +2597,7 @@
         <v>64</v>
       </c>
       <c r="I37" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="J37" t="str">
         <f t="shared" si="2"/>
@@ -2584,24 +2608,24 @@
         <v>Розетка СНП377-6РП21-1-07 РЮМК.430420.017ТУ</v>
       </c>
       <c r="L37" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M37" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="N37" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B38" t="s">
+        <v>126</v>
+      </c>
+      <c r="C38" t="s">
         <v>129</v>
-      </c>
-      <c r="C38" t="s">
-        <v>132</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>78</v>
@@ -2616,7 +2640,7 @@
         <v>64</v>
       </c>
       <c r="I38" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="J38" t="str">
         <f t="shared" si="2"/>
@@ -2627,24 +2651,24 @@
         <v>Розетка СНП377-7РП21-1-07 РЮМК.430420.017ТУ</v>
       </c>
       <c r="L38" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M38" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="N38" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B39" t="s">
+        <v>127</v>
+      </c>
+      <c r="C39" t="s">
         <v>130</v>
-      </c>
-      <c r="C39" t="s">
-        <v>133</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>78</v>
@@ -2659,7 +2683,7 @@
         <v>64</v>
       </c>
       <c r="I39" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="J39" t="str">
         <f t="shared" si="2"/>
@@ -2670,24 +2694,24 @@
         <v>Розетка СНП377-5РП21-1-07 РЮМК.430420.017ТУ</v>
       </c>
       <c r="L39" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M39" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="N39" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B40" t="s">
         <v>68</v>
       </c>
       <c r="C40" t="s">
-        <v>135</v>
+        <v>221</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>78</v>
@@ -2702,7 +2726,7 @@
         <v>62</v>
       </c>
       <c r="I40" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J40" t="str">
         <f t="shared" si="2"/>
@@ -2713,24 +2737,24 @@
         <v>Вилка СНП268-9ВП31-3-3-В БСАР.430420.014ТУ</v>
       </c>
       <c r="L40" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="M40" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="N40" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B41" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C41" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>78</v>
@@ -2745,28 +2769,28 @@
         <v>64</v>
       </c>
       <c r="J41" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="K41" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">Розетка BNS 1P4C h18,6 P10x10 </v>
       </c>
       <c r="L41" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="N41" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B42" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C42" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>78</v>
@@ -2781,32 +2805,32 @@
         <v>62</v>
       </c>
       <c r="J42" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="K42" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">Вилка DS1021-2x5 </v>
       </c>
       <c r="L42" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="M42" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="N42" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B43" t="s">
+        <v>139</v>
+      </c>
+      <c r="C43" t="s">
         <v>142</v>
       </c>
-      <c r="C43" t="s">
-        <v>145</v>
-      </c>
       <c r="E43" s="2" t="s">
         <v>78</v>
       </c>
@@ -2817,28 +2841,28 @@
         <v>79</v>
       </c>
       <c r="J43" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="K43" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> DS1021-1x3 </v>
       </c>
       <c r="M43" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="N43" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B44" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C44" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>78</v>
@@ -2858,24 +2882,24 @@
         <v xml:space="preserve"> APP50J1 </v>
       </c>
       <c r="L44" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="M44" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="N44" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B45" t="s">
         <v>71</v>
       </c>
       <c r="C45" t="s">
-        <v>88</v>
+        <v>216</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>78</v>
@@ -2890,7 +2914,7 @@
         <v>62</v>
       </c>
       <c r="I45" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J45" t="str">
         <f>A45</f>
@@ -2901,24 +2925,24 @@
         <v>Вилка СНП268-25ВП21-1-В БСАР.430420.014ТУ</v>
       </c>
       <c r="L45" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="M45" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="N45" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B46" t="s">
         <v>70</v>
       </c>
       <c r="C46" t="s">
-        <v>85</v>
+        <v>213</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>78</v>
@@ -2933,7 +2957,7 @@
         <v>64</v>
       </c>
       <c r="I46" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J46" t="str">
         <f>A46</f>
@@ -2944,24 +2968,24 @@
         <v>Розетка СНП268-15РП21-1-В БСАР.430420.014ТУ</v>
       </c>
       <c r="L46" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="M46" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="N46" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B47" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C47" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>78</v>
@@ -2976,7 +3000,7 @@
         <v>62</v>
       </c>
       <c r="I47" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="J47" t="str">
         <f>A47</f>
@@ -2987,24 +3011,24 @@
         <v>Вилка СНП347-10ВП21-В РЮМК.430420.012ТУ</v>
       </c>
       <c r="L47" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="M47" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="N47" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B48" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C48" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>78</v>
@@ -3019,7 +3043,7 @@
         <v>64</v>
       </c>
       <c r="I48" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="J48" t="str">
         <f>A48</f>
@@ -3030,24 +3054,24 @@
         <v>Розетка СР-50-939ФМВ-1 ВР0.364.049 ТУ</v>
       </c>
       <c r="L48" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="M48" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="N48" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B49" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C49" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>78</v>
@@ -3062,37 +3086,37 @@
         <v>64</v>
       </c>
       <c r="I49" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="J49" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="K49" t="str">
         <f t="shared" si="3"/>
         <v>Розетка СК9-РПМП-Х-1-055-1.М ТУ 27.33.13.120-006-38970729-2019</v>
       </c>
       <c r="L49" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="M49" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="N49" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B50" t="s">
         <v>71</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D50" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>78</v>
@@ -3115,24 +3139,24 @@
         <v xml:space="preserve">Вилка DS1033-25M </v>
       </c>
       <c r="L50" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="M50" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="N50" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B51" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C51" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>78</v>
@@ -3147,34 +3171,34 @@
         <v>62</v>
       </c>
       <c r="J51" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="K51" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">Вилка DS1013-10S (IDC-10MS) </v>
       </c>
       <c r="L51" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="M51" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="N51" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B52" t="s">
         <v>70</v>
       </c>
       <c r="C52" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D52" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>78</v>
@@ -3197,27 +3221,27 @@
         <v xml:space="preserve">Розетка DS1033-15F </v>
       </c>
       <c r="L52" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="M52" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="N52" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B53" t="s">
         <v>69</v>
       </c>
       <c r="C53" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D53" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>78</v>
@@ -3240,24 +3264,24 @@
         <v xml:space="preserve">Розетка DS1033-9F </v>
       </c>
       <c r="L53" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="M53" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="N53" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B54" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C54" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>78</v>
@@ -3272,34 +3296,34 @@
         <v>62</v>
       </c>
       <c r="J54" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="K54" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">Вилка DS1021-2X6SF11-B </v>
       </c>
       <c r="L54" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="M54" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="N54" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B55" t="s">
         <v>72</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D55" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>78</v>
@@ -3322,24 +3346,24 @@
         <v xml:space="preserve">Розетка DS1033-25F </v>
       </c>
       <c r="L55" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="M55" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="N55" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B56" t="s">
         <v>76</v>
       </c>
       <c r="C56" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>78</v>
@@ -3362,24 +3386,24 @@
         <v xml:space="preserve">Вилка DS1037-37M </v>
       </c>
       <c r="L56" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="M56" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="N56" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B57" t="s">
         <v>72</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>87</v>
+        <v>215</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>78</v>
@@ -3394,7 +3418,7 @@
         <v>64</v>
       </c>
       <c r="I57" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J57" t="str">
         <f t="shared" si="4"/>
@@ -3405,24 +3429,24 @@
         <v>Розетка СНП268-25РП31-3-5-В БСАР.430420.014ТУ</v>
       </c>
       <c r="L57" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="M57" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="N57" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B58" t="s">
         <v>70</v>
       </c>
       <c r="C58" t="s">
-        <v>84</v>
+        <v>212</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>78</v>
@@ -3437,7 +3461,7 @@
         <v>64</v>
       </c>
       <c r="I58" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J58" t="str">
         <f t="shared" si="4"/>
@@ -3448,24 +3472,24 @@
         <v>Розетка СНП268-15РП31-3-5-В БСАР.430420.014ТУ</v>
       </c>
       <c r="L58" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="M58" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="N58" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B59" t="s">
         <v>76</v>
       </c>
       <c r="C59" t="s">
-        <v>91</v>
+        <v>219</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>78</v>
@@ -3480,7 +3504,7 @@
         <v>62</v>
       </c>
       <c r="I59" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J59" t="str">
         <f t="shared" si="4"/>
@@ -3491,24 +3515,24 @@
         <v>Вилка СНП268-37ВП31-3-5-В БСАР.430420.014ТУ</v>
       </c>
       <c r="L59" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="M59" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="N59" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B60" t="s">
         <v>70</v>
       </c>
       <c r="C60" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>78</v>
@@ -3531,24 +3555,24 @@
         <v xml:space="preserve">Розетка DS1037-15F </v>
       </c>
       <c r="L60" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="M60" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="N60" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B61" t="s">
         <v>72</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>78</v>
@@ -3571,24 +3595,24 @@
         <v xml:space="preserve">Розетка DS1037-25F </v>
       </c>
       <c r="L61" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="M61" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="N61" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B62" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C62" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>78</v>
@@ -3603,7 +3627,7 @@
         <v>67</v>
       </c>
       <c r="I62" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="J62" t="s">
         <v>67</v>
@@ -3613,24 +3637,24 @@
         <v>Лепесток 2-1,0-4,0-14-04 ГОСТ 16840-78</v>
       </c>
       <c r="L62" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="M62" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="N62" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B63" t="s">
         <v>69</v>
       </c>
       <c r="C63" t="s">
-        <v>117</v>
+        <v>220</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>78</v>
@@ -3645,7 +3669,7 @@
         <v>64</v>
       </c>
       <c r="I63" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J63" t="str">
         <f t="shared" ref="J63:J70" si="5">A63</f>
@@ -3656,27 +3680,27 @@
         <v>Розетка СНП268-9РП31-1-3-В БСАР.430420.014ТУ</v>
       </c>
       <c r="L63" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="M63" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="N63" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B64" t="s">
         <v>69</v>
       </c>
       <c r="C64" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D64" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>78</v>
@@ -3691,7 +3715,7 @@
         <v>64</v>
       </c>
       <c r="I64" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J64" t="str">
         <f t="shared" si="5"/>
@@ -3702,18 +3726,18 @@
         <v>Розетка СНП268-9РП21-1-В БСАР.430420.014ТУ</v>
       </c>
       <c r="L64" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="M64" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="N64" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B65" t="s">
         <v>74</v>
@@ -3734,7 +3758,7 @@
         <v>62</v>
       </c>
       <c r="I65" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J65" t="str">
         <f t="shared" si="5"/>
@@ -3745,18 +3769,18 @@
         <v>Вилка СНП268-15ВП21-1-В БСАР.430420.014ТУ</v>
       </c>
       <c r="L65" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="M65" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="N65" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B66" t="s">
         <v>74</v>
@@ -3765,7 +3789,7 @@
         <v>81</v>
       </c>
       <c r="D66" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>78</v>
@@ -3788,21 +3812,21 @@
         <v xml:space="preserve">Вилка DS1033-15M </v>
       </c>
       <c r="L66" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="N66" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B67" t="s">
         <v>69</v>
       </c>
       <c r="C67" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>78</v>
@@ -3825,24 +3849,24 @@
         <v xml:space="preserve">Розетка DS1037-9F </v>
       </c>
       <c r="L67" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="M67" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="N67" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B68" t="s">
         <v>75</v>
       </c>
       <c r="C68" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>78</v>
@@ -3865,13 +3889,13 @@
         <v xml:space="preserve">Розетка DS1037-37F </v>
       </c>
       <c r="L68" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="M68" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="N68" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
@@ -3882,7 +3906,7 @@
         <v>72</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>87</v>
+        <v>215</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>78</v>
@@ -3897,7 +3921,7 @@
         <v>64</v>
       </c>
       <c r="I69" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J69" t="str">
         <f t="shared" si="5"/>
@@ -3908,24 +3932,24 @@
         <v>Розетка СНП268-25РП31-1-3-В БСАР.430420.014ТУ</v>
       </c>
       <c r="L69" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="M69" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="N69" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B70" t="s">
         <v>68</v>
       </c>
       <c r="C70" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>78</v>
@@ -3948,13 +3972,13 @@
         <v xml:space="preserve">Вилка DS1037-9M </v>
       </c>
       <c r="L70" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="M70" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="N70" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -3981,7 +4005,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D1" t="s">
         <v>24</v>
@@ -3989,7 +4013,7 @@
     </row>
     <row r="2" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D2" t="s">
         <v>25</v>
@@ -4024,7 +4048,7 @@
     </row>
     <row r="6" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D6" t="s">
         <v>33</v>
@@ -4032,7 +4056,7 @@
     </row>
     <row r="7" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D7" t="s">
         <v>34</v>
@@ -4040,7 +4064,7 @@
     </row>
     <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D8" t="s">
         <v>35</v>
@@ -4048,7 +4072,7 @@
     </row>
     <row r="9" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D9" t="s">
         <v>36</v>
@@ -4136,7 +4160,7 @@
     </row>
     <row r="17" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D17" t="s">
         <v>44</v>
@@ -4158,7 +4182,7 @@
     </row>
     <row r="19" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D19" t="s">
         <v>46</v>
@@ -4169,7 +4193,7 @@
     </row>
     <row r="20" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D20" t="s">
         <v>47</v>
@@ -4246,7 +4270,7 @@
     </row>
     <row r="27" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D27" t="s">
         <v>54</v>
@@ -4257,7 +4281,7 @@
     </row>
     <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D28" t="s">
         <v>55</v>
